--- a/Locations/GB1900_Gauges_and_Meters_With_Assignments.xlsx
+++ b/Locations/GB1900_Gauges_and_Meters_With_Assignments.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Git\Rainfall\EastRiding\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Git\Rainfall\DQ_Checks\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F483B2E-EF4F-4080-ACC1-28696B3D0DA6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79788777-B556-4C1F-B061-ADDB2CA6BD80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{42C2F81A-BE7F-4E22-984F-4C0A0D150C20}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$196</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$206</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2134" uniqueCount="1029">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2203" uniqueCount="1110">
   <si>
     <t>Country</t>
   </si>
@@ -1146,12 +1146,6 @@
     <t>https://maps.nls.uk/geo/explore/#zoom=16&amp;lat=53.68988376&amp;lon=-2.523036003&amp;layers=6&amp;b=1&amp;marker=53.68988376,-2.523036003</t>
   </si>
   <si>
-    <t>Roddlesworth, Lancashire</t>
-  </si>
-  <si>
-    <t>Four sheets for Roddleswell sheets, but they are 1930s onwards ?</t>
-  </si>
-  <si>
     <t>Blackburn With Darwen</t>
   </si>
   <si>
@@ -1725,12 +1719,6 @@
     <t>https://maps.nls.uk/geo/explore/#zoom=16&amp;lat=53.53183963&amp;lon=-2.106993198&amp;layers=6&amp;b=1&amp;marker=53.53183963,-2.106993198</t>
   </si>
   <si>
-    <t>Alexandra Park, Oldham</t>
-  </si>
-  <si>
-    <t>3 sheets. 1901-1920, 1 sheet 1955-1959</t>
-  </si>
-  <si>
     <t>Cheshire East</t>
   </si>
   <si>
@@ -2022,12 +2010,6 @@
     <t>https://maps.nls.uk/geo/explore/#zoom=16&amp;lat=53.60462741&amp;lon=-2.048821449&amp;layers=6&amp;b=1&amp;marker=53.60462741,-2.048821449</t>
   </si>
   <si>
-    <t>Rooden Reservoir</t>
-  </si>
-  <si>
-    <t>3 sheets, 1901-1923</t>
-  </si>
-  <si>
     <t>SJ9692079325</t>
   </si>
   <si>
@@ -2046,21 +2028,12 @@
     <t>https://maps.nls.uk/geo/explore/#zoom=16&amp;lat=53.64933122&amp;lon=-2.04734087&amp;layers=6&amp;b=1&amp;marker=53.64933122,-2.04734087</t>
   </si>
   <si>
-    <t>Littleborogh Broadhead ?</t>
-  </si>
-  <si>
-    <t>4 sheets 1924-1960</t>
-  </si>
-  <si>
     <t>SD9724212756</t>
   </si>
   <si>
     <t>https://maps.nls.uk/geo/explore/#zoom=16&amp;lat=53.61134936&amp;lon=-2.043156624&amp;layers=6&amp;b=1&amp;marker=53.61134936,-2.043156624</t>
   </si>
   <si>
-    <t>Above Cold Greave, Lancashire</t>
-  </si>
-  <si>
     <t>Calderdale</t>
   </si>
   <si>
@@ -2526,12 +2499,6 @@
     <t>https://maps.nls.uk/geo/explore/#zoom=16&amp;lat=53.87937644&amp;lon=-1.768358946&amp;layers=6&amp;b=1&amp;marker=53.87937644,-1.768358946</t>
   </si>
   <si>
-    <t>Reva House/Reservoir, Hawksworth</t>
-  </si>
-  <si>
-    <t>1 sheet 1915-1916, 1 sheet 1953-1960</t>
-  </si>
-  <si>
     <t>Blubberhouses</t>
   </si>
   <si>
@@ -3124,13 +3091,289 @@
   </si>
   <si>
     <t>RAVENSTHORPE-3.csv</t>
+  </si>
+  <si>
+    <t>Meteorological Station (Blackpool Corporation)</t>
+  </si>
+  <si>
+    <t>SD3199637822</t>
+  </si>
+  <si>
+    <t>https://maps.nls.uk/geo/explore/#zoom=16&amp;lat=53.83219429&amp;lon=-3.034747839&amp;layers=6&amp;b=1&amp;marker=53.83219429,-3.034747839</t>
+  </si>
+  <si>
+    <t>Burnley (Un-parished)</t>
+  </si>
+  <si>
+    <t>Meteorological Station</t>
+  </si>
+  <si>
+    <t>SD8488333400</t>
+  </si>
+  <si>
+    <t>https://maps.nls.uk/geo/explore/#zoom=16&amp;lat=53.79669038&amp;lon=-2.230964899&amp;layers=6&amp;b=1&amp;marker=53.79669038,-2.230964899</t>
+  </si>
+  <si>
+    <t>the Isle of Anglesey</t>
+  </si>
+  <si>
+    <t>Meteorological Office</t>
+  </si>
+  <si>
+    <t>SH2513283415</t>
+  </si>
+  <si>
+    <t>https://maps.nls.uk/geo/explore/#zoom=16&amp;lat=53.318704&amp;lon=-4.626692533&amp;layers=6&amp;b=1&amp;marker=53.318704,-4.626692533</t>
+  </si>
+  <si>
+    <t>Monzievaird and Strowan</t>
+  </si>
+  <si>
+    <t>NN8350523560</t>
+  </si>
+  <si>
+    <t>https://maps.nls.uk/geo/explore/#zoom=16&amp;lat=56.38990422&amp;lon=-3.888580799&amp;layers=6&amp;b=1&amp;marker=56.38990422,-3.888580799</t>
+  </si>
+  <si>
+    <t>East Devon</t>
+  </si>
+  <si>
+    <t>Combpyne Rousdon</t>
+  </si>
+  <si>
+    <t>Meteorological Observatory</t>
+  </si>
+  <si>
+    <t>SY2978890765</t>
+  </si>
+  <si>
+    <t>https://maps.nls.uk/geo/explore/#zoom=16&amp;lat=50.71226236&amp;lon=-2.995802164&amp;layers=6&amp;b=1&amp;marker=50.71226236,-2.995802164</t>
+  </si>
+  <si>
+    <t>Taunton Deane</t>
+  </si>
+  <si>
+    <t>Comeytrowe</t>
+  </si>
+  <si>
+    <t>ST2161723179</t>
+  </si>
+  <si>
+    <t>https://maps.nls.uk/geo/explore/#zoom=16&amp;lat=51.00264303&amp;lon=-3.118464947&amp;layers=6&amp;b=1&amp;marker=51.00264303,-3.118464947</t>
+  </si>
+  <si>
+    <t>Suffolk Coastal</t>
+  </si>
+  <si>
+    <t>Hollesley</t>
+  </si>
+  <si>
+    <t>TM3662444678</t>
+  </si>
+  <si>
+    <t>https://maps.nls.uk/geo/explore/#zoom=16&amp;lat=52.04994374&amp;lon=1.449637413&amp;layers=6&amp;b=1&amp;marker=52.04994374,1.449637413</t>
+  </si>
+  <si>
+    <t>Teignbridge</t>
+  </si>
+  <si>
+    <t>SX9414872572</t>
+  </si>
+  <si>
+    <t>https://maps.nls.uk/geo/explore/#zoom=16&amp;lat=50.54331299&amp;lon=-3.495240211&amp;layers=6&amp;b=1&amp;marker=50.54331299,-3.495240211</t>
+  </si>
+  <si>
+    <t>Broughton East</t>
+  </si>
+  <si>
+    <t>meteorological station</t>
+  </si>
+  <si>
+    <t>SD3868879442</t>
+  </si>
+  <si>
+    <t>https://maps.nls.uk/geo/explore/#zoom=16&amp;lat=54.20704206&amp;lon=-2.941503525&amp;layers=6&amp;b=1&amp;marker=54.20704206,-2.941503525</t>
+  </si>
+  <si>
+    <t>Location before the move to Stanley Park</t>
+  </si>
+  <si>
+    <t>BURNLEY-QUEENS-PARK</t>
+  </si>
+  <si>
+    <t>HOLYHEAD-SALT-ISLAND</t>
+  </si>
+  <si>
+    <t>Anglesey</t>
+  </si>
+  <si>
+    <t>SH253833</t>
+  </si>
+  <si>
+    <t>Crieff Ochtertyre</t>
+  </si>
+  <si>
+    <t>LYME-REGIS-ROUSDON</t>
+  </si>
+  <si>
+    <t>Queen's College, just outside Wilton</t>
+  </si>
+  <si>
+    <t>Colonial College, outside Hollesley</t>
+  </si>
+  <si>
+    <t>CARTMEL-AYNSOME-FARM</t>
+  </si>
+  <si>
+    <t>SD387794</t>
+  </si>
+  <si>
+    <t>Position of the 'M' of Meteorological is someway from gauge. No issue.</t>
+  </si>
+  <si>
+    <t>LAKE-VYRNWY-FRONGOCH</t>
+  </si>
+  <si>
+    <t>SJ000213</t>
+  </si>
+  <si>
+    <t>RODDLESWORTH</t>
+  </si>
+  <si>
+    <t>SD655216</t>
+  </si>
+  <si>
+    <t>OLDHAM-ALEXANDRA-PARK</t>
+  </si>
+  <si>
+    <t>SD931039</t>
+  </si>
+  <si>
+    <t>MILNROW-PIETHORNE-ROODEN-RES</t>
+  </si>
+  <si>
+    <t>SD969119</t>
+  </si>
+  <si>
+    <t>LITTLEBOROUGH-BROADHEAD</t>
+  </si>
+  <si>
+    <t>SD971168</t>
+  </si>
+  <si>
+    <t>MILNROW-PIETHORNE-NORMAN-HILL</t>
+  </si>
+  <si>
+    <t>SD972127</t>
+  </si>
+  <si>
+    <t>HAWKSWORTH-REVA-RES</t>
+  </si>
+  <si>
+    <t>SE153426</t>
+  </si>
+  <si>
+    <t>Plymouth</t>
+  </si>
+  <si>
+    <t>Plymouth (Un-parished)</t>
+  </si>
+  <si>
+    <t>SX5032759163</t>
+  </si>
+  <si>
+    <t>https://maps.nls.uk/geo/explore/#zoom=16&amp;lat=50.41322156&amp;lon=-4.107931852&amp;layers=6&amp;b=1&amp;marker=50.41322156,-4.107931852</t>
+  </si>
+  <si>
+    <t>Fursdon</t>
+  </si>
+  <si>
+    <t>2 sheets 1889-1891</t>
+  </si>
+  <si>
+    <t>SS569332</t>
+  </si>
+  <si>
+    <t>BARNSTAPLE-FORT-HILL</t>
+  </si>
+  <si>
+    <t>SD324094</t>
+  </si>
+  <si>
+    <t>DOWNHOLLAND-BARTON-MOSS</t>
+  </si>
+  <si>
+    <t>OSWALDTWISTLE-WW</t>
+  </si>
+  <si>
+    <t>SD742257</t>
+  </si>
+  <si>
+    <t>SE092802</t>
+  </si>
+  <si>
+    <t>MASHAM-MOOR-BRACKEN-HILL</t>
+  </si>
+  <si>
+    <t>MASHAM-MOOR-BLACK-BRUNT</t>
+  </si>
+  <si>
+    <t>SE112819</t>
+  </si>
+  <si>
+    <t>SE136423</t>
+  </si>
+  <si>
+    <t>BAILDON-WEECHER-RES</t>
+  </si>
+  <si>
+    <t>MASHAM-MOOR-SPRUCE-GILL-NORTH</t>
+  </si>
+  <si>
+    <t>SE138806</t>
+  </si>
+  <si>
+    <t>MASHAM-MOOR-SPRUCE-GILL-EAST</t>
+  </si>
+  <si>
+    <t>SE144801</t>
+  </si>
+  <si>
+    <t>SD848334</t>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>CRIEFF-OCHTERTYRE</t>
+  </si>
+  <si>
+    <t>NN8350123541</t>
+  </si>
+  <si>
+    <t>SY298907</t>
+  </si>
+  <si>
+    <t>HOLLESLEY-BAY</t>
+  </si>
+  <si>
+    <t>TM367446</t>
+  </si>
+  <si>
+    <t>SX941725</t>
+  </si>
+  <si>
+    <t>TEIGNMOUTH-DEN-GDNS</t>
+  </si>
+  <si>
+    <t>Added</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3150,6 +3393,19 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3188,7 +3444,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -3196,6 +3452,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3552,11 +3812,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9926F464-ECF1-4E35-8FC6-70E6BCC0B247}">
-  <dimension ref="A1:S196"/>
+  <dimension ref="A1:S206"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3567,7 +3827,7 @@
     <col min="6" max="6" width="9.5703125" customWidth="1"/>
     <col min="7" max="7" width="9.28515625" customWidth="1"/>
     <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="11" max="11" width="10" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" customWidth="1"/>
     <col min="13" max="13" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="37.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="44.7109375" bestFit="1" customWidth="1"/>
@@ -3612,7 +3872,7 @@
         <v>11</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>984</v>
+        <v>973</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>12</v>
@@ -3624,10 +3884,10 @@
         <v>14</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>986</v>
+        <v>975</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>985</v>
+        <v>974</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -3905,13 +4165,13 @@
         <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>991</v>
+        <v>980</v>
       </c>
       <c r="C8" t="s">
-        <v>992</v>
+        <v>981</v>
       </c>
       <c r="D8" t="s">
-        <v>993</v>
+        <v>982</v>
       </c>
       <c r="E8">
         <v>250573.94519999999</v>
@@ -3926,23 +4186,23 @@
         <v>-4.1397213940000004</v>
       </c>
       <c r="I8" t="s">
-        <v>994</v>
+        <v>983</v>
       </c>
       <c r="J8" t="s">
-        <v>995</v>
+        <v>984</v>
       </c>
       <c r="K8" s="2" t="str">
         <f t="shared" ref="K8" si="0">HYPERLINK(J8, "URL Link")</f>
         <v>URL Link</v>
       </c>
       <c r="N8" t="s">
-        <v>996</v>
+        <v>985</v>
       </c>
       <c r="O8" t="s">
         <v>71</v>
       </c>
       <c r="P8" t="s">
-        <v>997</v>
+        <v>986</v>
       </c>
       <c r="Q8">
         <v>76</v>
@@ -3983,7 +4243,7 @@
         <v>20</v>
       </c>
       <c r="M9" t="s">
-        <v>987</v>
+        <v>976</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>60</v>
@@ -4056,13 +4316,13 @@
         <v>65</v>
       </c>
       <c r="B11" t="s">
-        <v>991</v>
+        <v>980</v>
       </c>
       <c r="C11" t="s">
-        <v>998</v>
+        <v>987</v>
       </c>
       <c r="D11" t="s">
-        <v>999</v>
+        <v>988</v>
       </c>
       <c r="E11">
         <v>257061.541</v>
@@ -4077,35 +4337,35 @@
         <v>-4.0419441459999996</v>
       </c>
       <c r="I11" t="s">
-        <v>1000</v>
+        <v>989</v>
       </c>
       <c r="J11" t="s">
-        <v>1001</v>
+        <v>990</v>
       </c>
       <c r="K11" s="2" t="str">
         <f t="shared" ref="K11" si="1">HYPERLINK(J11, "URL Link")</f>
         <v>URL Link</v>
       </c>
-      <c r="M11" t="s">
-        <v>123</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="O11" s="3" t="s">
+      <c r="M11" s="9" t="s">
+        <v>1109</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>1085</v>
+      </c>
+      <c r="O11" s="9" t="s">
         <v>71</v>
       </c>
       <c r="P11" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>62</v>
+        <v>1084</v>
+      </c>
+      <c r="Q11">
+        <v>177</v>
       </c>
       <c r="R11" t="s">
-        <v>1002</v>
+        <v>991</v>
       </c>
       <c r="S11" t="s">
-        <v>1003</v>
+        <v>992</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -4677,26 +4937,23 @@
       <c r="K23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M23" t="s">
-        <v>123</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="O23" s="3" t="s">
+      <c r="N23" s="9" t="s">
+        <v>1064</v>
+      </c>
+      <c r="O23" s="9" t="s">
         <v>138</v>
       </c>
       <c r="P23" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>62</v>
+        <v>1065</v>
+      </c>
+      <c r="Q23">
+        <v>112</v>
       </c>
       <c r="R23" t="s">
-        <v>989</v>
+        <v>978</v>
       </c>
       <c r="S23" t="s">
-        <v>990</v>
+        <v>979</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
@@ -5429,7 +5686,7 @@
         <v>221</v>
       </c>
       <c r="P38" t="s">
-        <v>988</v>
+        <v>977</v>
       </c>
       <c r="Q38">
         <v>80</v>
@@ -5522,20 +5779,20 @@
       <c r="K40" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M40" t="s">
-        <v>123</v>
-      </c>
-      <c r="N40" s="3" t="s">
+      <c r="M40" s="9" t="s">
+        <v>1109</v>
+      </c>
+      <c r="N40" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="O40" s="3" t="s">
-        <v>213</v>
+      <c r="O40" s="9" t="s">
+        <v>1087</v>
       </c>
       <c r="P40" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>62</v>
+        <v>1086</v>
+      </c>
+      <c r="Q40">
+        <v>112</v>
       </c>
       <c r="R40" t="s">
         <v>235</v>
@@ -5626,7 +5883,7 @@
         <v>20</v>
       </c>
       <c r="M42" t="s">
-        <v>987</v>
+        <v>976</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>60</v>
@@ -5776,7 +6033,7 @@
         <v>20</v>
       </c>
       <c r="M45" t="s">
-        <v>987</v>
+        <v>976</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>60</v>
@@ -5858,13 +6115,13 @@
         <v>65</v>
       </c>
       <c r="B47" t="s">
-        <v>1004</v>
+        <v>993</v>
       </c>
       <c r="C47" t="s">
-        <v>1005</v>
+        <v>994</v>
       </c>
       <c r="D47" t="s">
-        <v>999</v>
+        <v>988</v>
       </c>
       <c r="E47">
         <v>339609.18170000002</v>
@@ -5879,23 +6136,23 @@
         <v>-2.9184365269999999</v>
       </c>
       <c r="I47" t="s">
-        <v>1006</v>
+        <v>995</v>
       </c>
       <c r="J47" t="s">
-        <v>1007</v>
+        <v>996</v>
       </c>
       <c r="K47" s="2" t="str">
         <f t="shared" ref="K47" si="2">HYPERLINK(J47, "URL Link")</f>
         <v>URL Link</v>
       </c>
       <c r="N47" t="s">
-        <v>1008</v>
+        <v>997</v>
       </c>
       <c r="O47" t="s">
         <v>213</v>
       </c>
       <c r="P47" t="s">
-        <v>1009</v>
+        <v>998</v>
       </c>
       <c r="Q47">
         <v>39</v>
@@ -6837,26 +7094,17 @@
       <c r="K67" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M67" t="s">
-        <v>123</v>
-      </c>
-      <c r="N67" s="3" t="s">
+      <c r="N67" s="9" t="s">
+        <v>1066</v>
+      </c>
+      <c r="O67" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="P67" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Q67">
         <v>60</v>
-      </c>
-      <c r="O67" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="P67" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>62</v>
-      </c>
-      <c r="R67" t="s">
-        <v>369</v>
-      </c>
-      <c r="S67" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
@@ -6864,10 +7112,10 @@
         <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C68" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D68" t="s">
         <v>17</v>
@@ -6885,22 +7133,22 @@
         <v>-2.520212173</v>
       </c>
       <c r="I68" t="s">
+        <v>371</v>
+      </c>
+      <c r="J68" t="s">
+        <v>372</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N68" t="s">
         <v>373</v>
-      </c>
-      <c r="J68" t="s">
-        <v>374</v>
-      </c>
-      <c r="K68" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N68" t="s">
-        <v>375</v>
       </c>
       <c r="O68" t="s">
         <v>213</v>
       </c>
       <c r="P68" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="Q68">
         <v>74</v>
@@ -6911,10 +7159,10 @@
         <v>65</v>
       </c>
       <c r="B69" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C69" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D69" t="s">
         <v>17</v>
@@ -6932,10 +7180,10 @@
         <v>-2.4948191639999999</v>
       </c>
       <c r="I69" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="J69" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="K69" s="2" t="s">
         <v>20</v>
@@ -6956,10 +7204,10 @@
         <v>62</v>
       </c>
       <c r="R69" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="S69" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
@@ -6988,10 +7236,10 @@
         <v>-2.4888110160000001</v>
       </c>
       <c r="I70" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J70" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="K70" s="2" t="s">
         <v>20</v>
@@ -7012,10 +7260,10 @@
         <v>62</v>
       </c>
       <c r="R70" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="S70" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
@@ -7023,10 +7271,10 @@
         <v>65</v>
       </c>
       <c r="B71" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C71" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D71" t="s">
         <v>17</v>
@@ -7044,22 +7292,22 @@
         <v>-2.487233877</v>
       </c>
       <c r="I71" t="s">
+        <v>384</v>
+      </c>
+      <c r="J71" t="s">
+        <v>385</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N71" t="s">
         <v>386</v>
-      </c>
-      <c r="J71" t="s">
-        <v>387</v>
-      </c>
-      <c r="K71" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N71" t="s">
-        <v>388</v>
       </c>
       <c r="O71" t="s">
         <v>213</v>
       </c>
       <c r="P71" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="Q71">
         <v>129</v>
@@ -7070,10 +7318,10 @@
         <v>65</v>
       </c>
       <c r="B72" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C72" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D72" t="s">
         <v>17</v>
@@ -7091,22 +7339,22 @@
         <v>-2.4680399890000002</v>
       </c>
       <c r="I72" t="s">
+        <v>389</v>
+      </c>
+      <c r="J72" t="s">
+        <v>390</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N72" t="s">
         <v>391</v>
-      </c>
-      <c r="J72" t="s">
-        <v>392</v>
-      </c>
-      <c r="K72" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N72" t="s">
-        <v>393</v>
       </c>
       <c r="O72" t="s">
         <v>213</v>
       </c>
       <c r="P72" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="Q72">
         <v>188</v>
@@ -7117,10 +7365,10 @@
         <v>65</v>
       </c>
       <c r="B73" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C73" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D73" t="s">
         <v>17</v>
@@ -7138,22 +7386,22 @@
         <v>-2.4611735339999998</v>
       </c>
       <c r="I73" t="s">
+        <v>393</v>
+      </c>
+      <c r="J73" t="s">
+        <v>394</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N73" t="s">
         <v>395</v>
-      </c>
-      <c r="J73" t="s">
-        <v>396</v>
-      </c>
-      <c r="K73" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N73" t="s">
-        <v>397</v>
       </c>
       <c r="O73" t="s">
         <v>213</v>
       </c>
       <c r="P73" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="Q73">
         <v>34</v>
@@ -7164,10 +7412,10 @@
         <v>65</v>
       </c>
       <c r="B74" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C74" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D74" t="s">
         <v>17</v>
@@ -7185,22 +7433,22 @@
         <v>-2.4517750739999999</v>
       </c>
       <c r="I74" t="s">
+        <v>397</v>
+      </c>
+      <c r="J74" t="s">
+        <v>398</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N74" t="s">
         <v>399</v>
-      </c>
-      <c r="J74" t="s">
-        <v>400</v>
-      </c>
-      <c r="K74" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N74" t="s">
-        <v>401</v>
       </c>
       <c r="O74" t="s">
         <v>213</v>
       </c>
       <c r="P74" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="Q74">
         <v>24</v>
@@ -7211,10 +7459,10 @@
         <v>65</v>
       </c>
       <c r="B75" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C75" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D75" t="s">
         <v>17</v>
@@ -7232,22 +7480,22 @@
         <v>-2.434093952</v>
       </c>
       <c r="I75" t="s">
+        <v>403</v>
+      </c>
+      <c r="J75" t="s">
+        <v>404</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N75" t="s">
         <v>405</v>
-      </c>
-      <c r="J75" t="s">
-        <v>406</v>
-      </c>
-      <c r="K75" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N75" t="s">
-        <v>407</v>
       </c>
       <c r="O75" t="s">
         <v>213</v>
       </c>
       <c r="P75" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="Q75">
         <v>75</v>
@@ -7258,10 +7506,10 @@
         <v>65</v>
       </c>
       <c r="B76" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C76" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D76" t="s">
         <v>225</v>
@@ -7279,22 +7527,22 @@
         <v>-2.4333322050000001</v>
       </c>
       <c r="I76" t="s">
+        <v>407</v>
+      </c>
+      <c r="J76" t="s">
+        <v>408</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N76" t="s">
         <v>409</v>
-      </c>
-      <c r="J76" t="s">
-        <v>410</v>
-      </c>
-      <c r="K76" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N76" t="s">
-        <v>411</v>
       </c>
       <c r="O76" t="s">
         <v>213</v>
       </c>
       <c r="P76" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="Q76">
         <v>108</v>
@@ -7305,10 +7553,10 @@
         <v>65</v>
       </c>
       <c r="B77" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C77" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D77" t="s">
         <v>225</v>
@@ -7326,22 +7574,22 @@
         <v>-2.4230647090000001</v>
       </c>
       <c r="I77" t="s">
+        <v>412</v>
+      </c>
+      <c r="J77" t="s">
+        <v>413</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N77" t="s">
         <v>414</v>
-      </c>
-      <c r="J77" t="s">
-        <v>415</v>
-      </c>
-      <c r="K77" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N77" t="s">
-        <v>416</v>
       </c>
       <c r="O77" t="s">
         <v>213</v>
       </c>
       <c r="P77" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="Q77">
         <v>54</v>
@@ -7352,10 +7600,10 @@
         <v>65</v>
       </c>
       <c r="B78" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C78" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D78" t="s">
         <v>17</v>
@@ -7373,28 +7621,28 @@
         <v>-2.4181830880000001</v>
       </c>
       <c r="I78" t="s">
+        <v>416</v>
+      </c>
+      <c r="J78" t="s">
+        <v>417</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N78" t="s">
         <v>418</v>
-      </c>
-      <c r="J78" t="s">
-        <v>419</v>
-      </c>
-      <c r="K78" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N78" t="s">
-        <v>420</v>
       </c>
       <c r="O78" t="s">
         <v>213</v>
       </c>
       <c r="P78" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="Q78">
         <v>128</v>
       </c>
       <c r="S78" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
@@ -7402,10 +7650,10 @@
         <v>65</v>
       </c>
       <c r="B79" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C79" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D79" t="s">
         <v>17</v>
@@ -7423,28 +7671,28 @@
         <v>-2.4153184890000001</v>
       </c>
       <c r="I79" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="J79" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="K79" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N79" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="O79" t="s">
         <v>213</v>
       </c>
       <c r="P79" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="Q79">
         <v>112</v>
       </c>
       <c r="S79" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
@@ -7455,7 +7703,7 @@
         <v>304</v>
       </c>
       <c r="C80" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D80" t="s">
         <v>17</v>
@@ -7473,10 +7721,10 @@
         <v>-2.4148120890000002</v>
       </c>
       <c r="I80" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="J80" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>20</v>
@@ -7497,10 +7745,10 @@
         <v>62</v>
       </c>
       <c r="R80" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="S80" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
@@ -7511,7 +7759,7 @@
         <v>304</v>
       </c>
       <c r="C81" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D81" t="s">
         <v>17</v>
@@ -7529,10 +7777,10 @@
         <v>-2.3918094640000001</v>
       </c>
       <c r="I81" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="J81" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="K81" s="2" t="s">
         <v>20</v>
@@ -7553,10 +7801,10 @@
         <v>62</v>
       </c>
       <c r="R81" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="S81" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
@@ -7564,10 +7812,10 @@
         <v>65</v>
       </c>
       <c r="B82" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C82" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D82" t="s">
         <v>17</v>
@@ -7585,34 +7833,34 @@
         <v>-2.3917365070000001</v>
       </c>
       <c r="I82" t="s">
+        <v>432</v>
+      </c>
+      <c r="J82" t="s">
+        <v>433</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M82" s="9" t="s">
+        <v>1109</v>
+      </c>
+      <c r="N82" s="9" t="s">
+        <v>1088</v>
+      </c>
+      <c r="O82" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="P82" t="s">
+        <v>1089</v>
+      </c>
+      <c r="Q82">
+        <v>173</v>
+      </c>
+      <c r="R82" t="s">
         <v>434</v>
       </c>
-      <c r="J82" t="s">
+      <c r="S82" t="s">
         <v>435</v>
-      </c>
-      <c r="K82" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M82" t="s">
-        <v>123</v>
-      </c>
-      <c r="N82" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="O82" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="P82" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q82" t="s">
-        <v>62</v>
-      </c>
-      <c r="R82" t="s">
-        <v>436</v>
-      </c>
-      <c r="S82" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
@@ -7620,10 +7868,10 @@
         <v>65</v>
       </c>
       <c r="B83" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C83" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D83" t="s">
         <v>17</v>
@@ -7641,10 +7889,10 @@
         <v>-2.3907494539999998</v>
       </c>
       <c r="I83" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J83" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="K83" s="2" t="s">
         <v>20</v>
@@ -7665,10 +7913,10 @@
         <v>62</v>
       </c>
       <c r="R83" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="S83" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
@@ -7679,7 +7927,7 @@
         <v>304</v>
       </c>
       <c r="C84" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D84" t="s">
         <v>17</v>
@@ -7697,22 +7945,22 @@
         <v>-2.3289620879999999</v>
       </c>
       <c r="I84" t="s">
+        <v>441</v>
+      </c>
+      <c r="J84" t="s">
+        <v>442</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N84" t="s">
         <v>443</v>
-      </c>
-      <c r="J84" t="s">
-        <v>444</v>
-      </c>
-      <c r="K84" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N84" t="s">
-        <v>445</v>
       </c>
       <c r="O84" t="s">
         <v>213</v>
       </c>
       <c r="P84" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="Q84">
         <v>56</v>
@@ -7723,10 +7971,10 @@
         <v>65</v>
       </c>
       <c r="B85" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C85" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D85" t="s">
         <v>17</v>
@@ -7744,22 +7992,22 @@
         <v>-2.2816972729999998</v>
       </c>
       <c r="I85" t="s">
+        <v>447</v>
+      </c>
+      <c r="J85" t="s">
+        <v>448</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N85" t="s">
         <v>449</v>
-      </c>
-      <c r="J85" t="s">
-        <v>450</v>
-      </c>
-      <c r="K85" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N85" t="s">
-        <v>451</v>
       </c>
       <c r="O85" t="s">
         <v>213</v>
       </c>
       <c r="P85" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="Q85">
         <v>34</v>
@@ -7770,10 +8018,10 @@
         <v>65</v>
       </c>
       <c r="B86" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C86" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D86" t="s">
         <v>17</v>
@@ -7791,28 +8039,28 @@
         <v>-2.266981602</v>
       </c>
       <c r="I86" t="s">
+        <v>453</v>
+      </c>
+      <c r="J86" t="s">
+        <v>454</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N86" t="s">
         <v>455</v>
-      </c>
-      <c r="J86" t="s">
-        <v>456</v>
-      </c>
-      <c r="K86" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N86" t="s">
-        <v>457</v>
       </c>
       <c r="O86" t="s">
         <v>213</v>
       </c>
       <c r="P86" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="Q86">
         <v>110</v>
       </c>
       <c r="S86" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
@@ -7820,10 +8068,10 @@
         <v>65</v>
       </c>
       <c r="B87" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C87" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D87" t="s">
         <v>17</v>
@@ -7841,22 +8089,22 @@
         <v>-2.265533209</v>
       </c>
       <c r="I87" t="s">
+        <v>460</v>
+      </c>
+      <c r="J87" t="s">
+        <v>461</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N87" t="s">
         <v>462</v>
-      </c>
-      <c r="J87" t="s">
-        <v>463</v>
-      </c>
-      <c r="K87" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N87" t="s">
-        <v>464</v>
       </c>
       <c r="O87" t="s">
         <v>213</v>
       </c>
       <c r="P87" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="Q87">
         <v>52</v>
@@ -7867,10 +8115,10 @@
         <v>65</v>
       </c>
       <c r="B88" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C88" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D88" t="s">
         <v>17</v>
@@ -7888,22 +8136,22 @@
         <v>-2.2588920589999999</v>
       </c>
       <c r="I88" t="s">
+        <v>464</v>
+      </c>
+      <c r="J88" t="s">
+        <v>465</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N88" t="s">
         <v>466</v>
-      </c>
-      <c r="J88" t="s">
-        <v>467</v>
-      </c>
-      <c r="K88" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N88" t="s">
-        <v>468</v>
       </c>
       <c r="O88" t="s">
         <v>213</v>
       </c>
       <c r="P88" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="Q88">
         <v>23</v>
@@ -7914,10 +8162,10 @@
         <v>65</v>
       </c>
       <c r="B89" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C89" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D89" t="s">
         <v>17</v>
@@ -7935,22 +8183,22 @@
         <v>-2.2565531729999999</v>
       </c>
       <c r="I89" t="s">
+        <v>468</v>
+      </c>
+      <c r="J89" t="s">
+        <v>469</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N89" t="s">
         <v>470</v>
-      </c>
-      <c r="J89" t="s">
-        <v>471</v>
-      </c>
-      <c r="K89" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N89" t="s">
-        <v>472</v>
       </c>
       <c r="O89" t="s">
         <v>213</v>
       </c>
       <c r="P89" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="Q89">
         <v>96</v>
@@ -7961,10 +8209,10 @@
         <v>65</v>
       </c>
       <c r="B90" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C90" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D90" t="s">
         <v>17</v>
@@ -7982,10 +8230,10 @@
         <v>-2.2498905659999999</v>
       </c>
       <c r="I90" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="J90" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="K90" s="2" t="s">
         <v>20</v>
@@ -8006,10 +8254,10 @@
         <v>62</v>
       </c>
       <c r="R90" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="S90" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
@@ -8017,10 +8265,10 @@
         <v>65</v>
       </c>
       <c r="B91" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C91" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D91" t="s">
         <v>17</v>
@@ -8038,22 +8286,22 @@
         <v>-2.245910168</v>
       </c>
       <c r="I91" t="s">
+        <v>478</v>
+      </c>
+      <c r="J91" t="s">
+        <v>479</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N91" t="s">
         <v>480</v>
-      </c>
-      <c r="J91" t="s">
-        <v>481</v>
-      </c>
-      <c r="K91" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N91" t="s">
-        <v>482</v>
       </c>
       <c r="O91" t="s">
         <v>213</v>
       </c>
       <c r="P91" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="Q91">
         <v>213</v>
@@ -8064,10 +8312,10 @@
         <v>65</v>
       </c>
       <c r="B92" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C92" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D92" t="s">
         <v>17</v>
@@ -8085,16 +8333,16 @@
         <v>-2.2366833690000001</v>
       </c>
       <c r="I92" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="J92" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="K92" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M92" t="s">
-        <v>987</v>
+        <v>976</v>
       </c>
       <c r="N92" s="3" t="s">
         <v>60</v>
@@ -8109,7 +8357,7 @@
         <v>62</v>
       </c>
       <c r="R92" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="S92" t="s">
         <v>64</v>
@@ -8120,10 +8368,10 @@
         <v>65</v>
       </c>
       <c r="B93" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C93" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D93" t="s">
         <v>17</v>
@@ -8141,22 +8389,22 @@
         <v>-2.2272741790000001</v>
       </c>
       <c r="I93" t="s">
+        <v>485</v>
+      </c>
+      <c r="J93" t="s">
+        <v>486</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N93" t="s">
         <v>487</v>
-      </c>
-      <c r="J93" t="s">
-        <v>488</v>
-      </c>
-      <c r="K93" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N93" t="s">
-        <v>489</v>
       </c>
       <c r="O93" t="s">
         <v>213</v>
       </c>
       <c r="P93" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="Q93">
         <v>154</v>
@@ -8167,10 +8415,10 @@
         <v>65</v>
       </c>
       <c r="B94" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C94" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D94" t="s">
         <v>225</v>
@@ -8188,22 +8436,22 @@
         <v>-2.218154669</v>
       </c>
       <c r="I94" t="s">
+        <v>489</v>
+      </c>
+      <c r="J94" t="s">
+        <v>490</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N94" t="s">
         <v>491</v>
-      </c>
-      <c r="J94" t="s">
-        <v>492</v>
-      </c>
-      <c r="K94" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N94" t="s">
-        <v>493</v>
       </c>
       <c r="O94" t="s">
         <v>213</v>
       </c>
       <c r="P94" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="Q94">
         <v>81</v>
@@ -8214,10 +8462,10 @@
         <v>65</v>
       </c>
       <c r="B95" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C95" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D95" t="s">
         <v>120</v>
@@ -8235,22 +8483,22 @@
         <v>-2.208069563</v>
       </c>
       <c r="I95" t="s">
+        <v>495</v>
+      </c>
+      <c r="J95" t="s">
+        <v>496</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N95" t="s">
         <v>497</v>
       </c>
-      <c r="J95" t="s">
+      <c r="O95" t="s">
         <v>498</v>
       </c>
-      <c r="K95" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N95" t="s">
+      <c r="P95" t="s">
         <v>499</v>
-      </c>
-      <c r="O95" t="s">
-        <v>500</v>
-      </c>
-      <c r="P95" t="s">
-        <v>501</v>
       </c>
       <c r="Q95">
         <v>100</v>
@@ -8261,13 +8509,13 @@
         <v>65</v>
       </c>
       <c r="B96" t="s">
+        <v>500</v>
+      </c>
+      <c r="C96" t="s">
+        <v>501</v>
+      </c>
+      <c r="D96" t="s">
         <v>502</v>
-      </c>
-      <c r="C96" t="s">
-        <v>503</v>
-      </c>
-      <c r="D96" t="s">
-        <v>504</v>
       </c>
       <c r="E96">
         <v>388405.16480000003</v>
@@ -8282,22 +8530,22 @@
         <v>-2.1807861329999998</v>
       </c>
       <c r="I96" t="s">
+        <v>503</v>
+      </c>
+      <c r="J96" t="s">
+        <v>504</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N96" t="s">
         <v>505</v>
       </c>
-      <c r="J96" t="s">
+      <c r="O96" t="s">
         <v>506</v>
       </c>
-      <c r="K96" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N96" t="s">
+      <c r="P96" t="s">
         <v>507</v>
-      </c>
-      <c r="O96" t="s">
-        <v>508</v>
-      </c>
-      <c r="P96" t="s">
-        <v>509</v>
       </c>
       <c r="Q96">
         <v>210</v>
@@ -8308,10 +8556,10 @@
         <v>65</v>
       </c>
       <c r="B97" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C97" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D97" t="s">
         <v>17</v>
@@ -8329,22 +8577,22 @@
         <v>-2.1753358839999999</v>
       </c>
       <c r="I97" t="s">
+        <v>509</v>
+      </c>
+      <c r="J97" t="s">
+        <v>510</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N97" t="s">
         <v>511</v>
-      </c>
-      <c r="J97" t="s">
-        <v>512</v>
-      </c>
-      <c r="K97" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N97" t="s">
-        <v>513</v>
       </c>
       <c r="O97" t="s">
         <v>213</v>
       </c>
       <c r="P97" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="Q97">
         <v>58</v>
@@ -8355,10 +8603,10 @@
         <v>65</v>
       </c>
       <c r="B98" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C98" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D98" t="s">
         <v>17</v>
@@ -8376,22 +8624,22 @@
         <v>-2.1693062780000001</v>
       </c>
       <c r="I98" t="s">
+        <v>514</v>
+      </c>
+      <c r="J98" t="s">
+        <v>515</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N98" t="s">
         <v>516</v>
-      </c>
-      <c r="J98" t="s">
-        <v>517</v>
-      </c>
-      <c r="K98" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N98" t="s">
-        <v>518</v>
       </c>
       <c r="O98" t="s">
         <v>213</v>
       </c>
       <c r="P98" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="Q98">
         <v>99</v>
@@ -8402,10 +8650,10 @@
         <v>65</v>
       </c>
       <c r="B99" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C99" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D99" t="s">
         <v>17</v>
@@ -8423,22 +8671,22 @@
         <v>-2.1660017969999998</v>
       </c>
       <c r="I99" t="s">
+        <v>519</v>
+      </c>
+      <c r="J99" t="s">
+        <v>520</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N99" t="s">
         <v>521</v>
-      </c>
-      <c r="J99" t="s">
-        <v>522</v>
-      </c>
-      <c r="K99" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N99" t="s">
-        <v>523</v>
       </c>
       <c r="O99" t="s">
         <v>213</v>
       </c>
       <c r="P99" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="Q99">
         <v>89</v>
@@ -8449,10 +8697,10 @@
         <v>65</v>
       </c>
       <c r="B100" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C100" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D100" t="s">
         <v>17</v>
@@ -8470,22 +8718,22 @@
         <v>-2.1656756399999999</v>
       </c>
       <c r="I100" t="s">
+        <v>523</v>
+      </c>
+      <c r="J100" t="s">
+        <v>524</v>
+      </c>
+      <c r="K100" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N100" t="s">
         <v>525</v>
-      </c>
-      <c r="J100" t="s">
-        <v>526</v>
-      </c>
-      <c r="K100" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N100" t="s">
-        <v>527</v>
       </c>
       <c r="O100" t="s">
         <v>213</v>
       </c>
       <c r="P100" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="Q100">
         <v>56</v>
@@ -8496,10 +8744,10 @@
         <v>65</v>
       </c>
       <c r="B101" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C101" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D101" t="s">
         <v>17</v>
@@ -8517,22 +8765,22 @@
         <v>-2.1637916580000001</v>
       </c>
       <c r="I101" t="s">
+        <v>527</v>
+      </c>
+      <c r="J101" t="s">
+        <v>528</v>
+      </c>
+      <c r="K101" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N101" t="s">
         <v>529</v>
-      </c>
-      <c r="J101" t="s">
-        <v>530</v>
-      </c>
-      <c r="K101" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N101" t="s">
-        <v>531</v>
       </c>
       <c r="O101" t="s">
         <v>213</v>
       </c>
       <c r="P101" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="Q101">
         <v>102</v>
@@ -8543,10 +8791,10 @@
         <v>65</v>
       </c>
       <c r="B102" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C102" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D102" t="s">
         <v>17</v>
@@ -8564,22 +8812,22 @@
         <v>-2.162259588</v>
       </c>
       <c r="I102" t="s">
+        <v>531</v>
+      </c>
+      <c r="J102" t="s">
+        <v>532</v>
+      </c>
+      <c r="K102" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N102" t="s">
         <v>533</v>
-      </c>
-      <c r="J102" t="s">
-        <v>534</v>
-      </c>
-      <c r="K102" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N102" t="s">
-        <v>535</v>
       </c>
       <c r="O102" t="s">
         <v>213</v>
       </c>
       <c r="P102" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="Q102">
         <v>101</v>
@@ -8590,10 +8838,10 @@
         <v>65</v>
       </c>
       <c r="B103" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C103" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D103" t="s">
         <v>17</v>
@@ -8611,28 +8859,28 @@
         <v>-2.1518869399999998</v>
       </c>
       <c r="I103" t="s">
+        <v>535</v>
+      </c>
+      <c r="J103" t="s">
+        <v>536</v>
+      </c>
+      <c r="K103" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N103" t="s">
         <v>537</v>
-      </c>
-      <c r="J103" t="s">
-        <v>538</v>
-      </c>
-      <c r="K103" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N103" t="s">
-        <v>539</v>
       </c>
       <c r="O103" t="s">
         <v>213</v>
       </c>
       <c r="P103" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="Q103">
         <v>210</v>
       </c>
       <c r="S103" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
@@ -8640,10 +8888,10 @@
         <v>65</v>
       </c>
       <c r="B104" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C104" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D104" t="s">
         <v>17</v>
@@ -8661,22 +8909,22 @@
         <v>-2.1386325359999998</v>
       </c>
       <c r="I104" t="s">
+        <v>542</v>
+      </c>
+      <c r="J104" t="s">
+        <v>543</v>
+      </c>
+      <c r="K104" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N104" t="s">
         <v>544</v>
-      </c>
-      <c r="J104" t="s">
-        <v>545</v>
-      </c>
-      <c r="K104" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N104" t="s">
-        <v>546</v>
       </c>
       <c r="O104" t="s">
         <v>309</v>
       </c>
       <c r="P104" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="Q104">
         <v>110</v>
@@ -8687,10 +8935,10 @@
         <v>65</v>
       </c>
       <c r="B105" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C105" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D105" t="s">
         <v>17</v>
@@ -8708,22 +8956,22 @@
         <v>-2.1263802049999998</v>
       </c>
       <c r="I105" t="s">
+        <v>547</v>
+      </c>
+      <c r="J105" t="s">
+        <v>548</v>
+      </c>
+      <c r="K105" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N105" t="s">
         <v>549</v>
       </c>
-      <c r="J105" t="s">
+      <c r="O105" t="s">
+        <v>506</v>
+      </c>
+      <c r="P105" t="s">
         <v>550</v>
-      </c>
-      <c r="K105" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N105" t="s">
-        <v>551</v>
-      </c>
-      <c r="O105" t="s">
-        <v>508</v>
-      </c>
-      <c r="P105" t="s">
-        <v>552</v>
       </c>
       <c r="Q105">
         <v>39</v>
@@ -8734,10 +8982,10 @@
         <v>65</v>
       </c>
       <c r="B106" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C106" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D106" t="s">
         <v>17</v>
@@ -8755,10 +9003,10 @@
         <v>-2.1143317220000002</v>
       </c>
       <c r="I106" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="J106" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="K106" s="2" t="s">
         <v>20</v>
@@ -8779,10 +9027,10 @@
         <v>62</v>
       </c>
       <c r="R106" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="S106" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
@@ -8790,10 +9038,10 @@
         <v>65</v>
       </c>
       <c r="B107" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C107" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D107" t="s">
         <v>120</v>
@@ -8811,34 +9059,25 @@
         <v>-2.1069931980000001</v>
       </c>
       <c r="I107" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="J107" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="K107" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M107" t="s">
-        <v>123</v>
-      </c>
-      <c r="N107" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="O107" s="3" t="s">
+      <c r="N107" s="9" t="s">
+        <v>1068</v>
+      </c>
+      <c r="O107" s="9" t="s">
         <v>213</v>
       </c>
       <c r="P107" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q107" t="s">
-        <v>62</v>
-      </c>
-      <c r="R107" t="s">
-        <v>562</v>
-      </c>
-      <c r="S107" t="s">
-        <v>563</v>
+        <v>1069</v>
+      </c>
+      <c r="Q107">
+        <v>96</v>
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
@@ -8846,10 +9085,10 @@
         <v>65</v>
       </c>
       <c r="B108" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C108" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="D108" t="s">
         <v>17</v>
@@ -8867,22 +9106,22 @@
         <v>-2.103564263</v>
       </c>
       <c r="I108" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="J108" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="K108" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N108" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="O108" t="s">
         <v>221</v>
       </c>
       <c r="P108" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="Q108">
         <v>110</v>
@@ -8893,10 +9132,10 @@
         <v>65</v>
       </c>
       <c r="B109" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C109" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="D109" t="s">
         <v>17</v>
@@ -8914,22 +9153,22 @@
         <v>-2.1016716959999999</v>
       </c>
       <c r="I109" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="J109" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="K109" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N109" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="O109" t="s">
         <v>309</v>
       </c>
       <c r="P109" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="Q109">
         <v>41</v>
@@ -8940,10 +9179,10 @@
         <v>65</v>
       </c>
       <c r="B110" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C110" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="D110" t="s">
         <v>17</v>
@@ -8961,10 +9200,10 @@
         <v>-2.1015000339999999</v>
       </c>
       <c r="I110" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="J110" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="K110" s="2" t="s">
         <v>20</v>
@@ -8985,10 +9224,10 @@
         <v>62</v>
       </c>
       <c r="R110" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="S110" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
@@ -8996,10 +9235,10 @@
         <v>65</v>
       </c>
       <c r="B111" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C111" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="D111" t="s">
         <v>17</v>
@@ -9017,10 +9256,10 @@
         <v>-2.0986217030000001</v>
       </c>
       <c r="I111" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="J111" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="K111" s="2" t="s">
         <v>20</v>
@@ -9041,10 +9280,10 @@
         <v>62</v>
       </c>
       <c r="R111" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="S111" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
@@ -9052,10 +9291,10 @@
         <v>65</v>
       </c>
       <c r="B112" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C112" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="D112" t="s">
         <v>17</v>
@@ -9073,22 +9312,22 @@
         <v>-2.0951700209999999</v>
       </c>
       <c r="I112" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="J112" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="K112" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N112" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="O112" t="s">
         <v>309</v>
       </c>
       <c r="P112" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="Q112">
         <v>64</v>
@@ -9099,10 +9338,10 @@
         <v>65</v>
       </c>
       <c r="B113" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C113" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="D113" t="s">
         <v>17</v>
@@ -9120,22 +9359,22 @@
         <v>-2.0934855940000001</v>
       </c>
       <c r="I113" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="J113" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="K113" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N113" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="O113" t="s">
         <v>309</v>
       </c>
       <c r="P113" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="Q113">
         <v>108</v>
@@ -9146,10 +9385,10 @@
         <v>65</v>
       </c>
       <c r="B114" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C114" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="D114" t="s">
         <v>17</v>
@@ -9167,22 +9406,22 @@
         <v>-2.0862972740000001</v>
       </c>
       <c r="I114" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="J114" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="K114" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N114" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="O114" t="s">
         <v>309</v>
       </c>
       <c r="P114" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="Q114">
         <v>89</v>
@@ -9193,10 +9432,10 @@
         <v>65</v>
       </c>
       <c r="B115" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C115" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="D115" t="s">
         <v>17</v>
@@ -9214,22 +9453,22 @@
         <v>-2.0833253859999998</v>
       </c>
       <c r="I115" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="J115" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="K115" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N115" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="O115" t="s">
         <v>309</v>
       </c>
       <c r="P115" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="Q115">
         <v>44</v>
@@ -9240,10 +9479,10 @@
         <v>65</v>
       </c>
       <c r="B116" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C116" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D116" t="s">
         <v>17</v>
@@ -9261,28 +9500,28 @@
         <v>-2.0783364770000001</v>
       </c>
       <c r="I116" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="J116" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="K116" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N116" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="O116" t="s">
         <v>213</v>
       </c>
       <c r="P116" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="Q116">
         <v>55</v>
       </c>
       <c r="S116" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.25">
@@ -9290,10 +9529,10 @@
         <v>65</v>
       </c>
       <c r="B117" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C117" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D117" t="s">
         <v>17</v>
@@ -9311,10 +9550,10 @@
         <v>-2.0778322220000001</v>
       </c>
       <c r="I117" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="J117" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="K117" s="2" t="s">
         <v>20</v>
@@ -9335,10 +9574,10 @@
         <v>62</v>
       </c>
       <c r="R117" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="S117" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.25">
@@ -9346,10 +9585,10 @@
         <v>65</v>
       </c>
       <c r="B118" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C118" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D118" t="s">
         <v>17</v>
@@ -9367,16 +9606,16 @@
         <v>-2.077692747</v>
       </c>
       <c r="I118" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="J118" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="K118" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N118" s="3" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="O118" s="3" t="s">
         <v>213</v>
@@ -9388,10 +9627,10 @@
         <v>62</v>
       </c>
       <c r="R118" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="S118" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
@@ -9399,10 +9638,10 @@
         <v>65</v>
       </c>
       <c r="B119" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C119" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D119" t="s">
         <v>17</v>
@@ -9420,16 +9659,16 @@
         <v>-2.0769846439999999</v>
       </c>
       <c r="I119" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="J119" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="K119" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N119" s="3" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="O119" s="3" t="s">
         <v>213</v>
@@ -9441,10 +9680,10 @@
         <v>62</v>
       </c>
       <c r="R119" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="S119" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.25">
@@ -9452,10 +9691,10 @@
         <v>65</v>
       </c>
       <c r="B120" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C120" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="D120" t="s">
         <v>17</v>
@@ -9473,10 +9712,10 @@
         <v>-2.0711803440000001</v>
       </c>
       <c r="I120" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="J120" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="K120" s="2" t="s">
         <v>20</v>
@@ -9497,10 +9736,10 @@
         <v>62</v>
       </c>
       <c r="R120" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="S120" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.25">
@@ -9508,10 +9747,10 @@
         <v>65</v>
       </c>
       <c r="B121" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C121" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="D121" t="s">
         <v>120</v>
@@ -9529,28 +9768,28 @@
         <v>-2.0699036120000001</v>
       </c>
       <c r="I121" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="J121" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="K121" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N121" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="O121" t="s">
         <v>213</v>
       </c>
       <c r="P121" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="Q121">
         <v>31</v>
       </c>
       <c r="S121" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
@@ -9558,10 +9797,10 @@
         <v>65</v>
       </c>
       <c r="B122" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C122" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="D122" t="s">
         <v>120</v>
@@ -9579,28 +9818,28 @@
         <v>-2.0675325390000001</v>
       </c>
       <c r="I122" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="J122" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="K122" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N122" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="O122" t="s">
         <v>213</v>
       </c>
       <c r="P122" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="Q122">
         <v>35</v>
       </c>
       <c r="S122" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
@@ -9608,10 +9847,10 @@
         <v>65</v>
       </c>
       <c r="B123" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C123" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="D123" t="s">
         <v>17</v>
@@ -9629,16 +9868,16 @@
         <v>-2.0666098590000002</v>
       </c>
       <c r="I123" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="J123" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="K123" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N123" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="O123" t="s">
         <v>309</v>
@@ -9652,10 +9891,10 @@
         <v>65</v>
       </c>
       <c r="B124" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="C124" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="D124" t="s">
         <v>17</v>
@@ -9673,22 +9912,22 @@
         <v>-2.0656479160000001</v>
       </c>
       <c r="I124" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="J124" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="K124" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N124" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="O124" t="s">
         <v>213</v>
       </c>
       <c r="P124" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="Q124">
         <v>57</v>
@@ -9699,10 +9938,10 @@
         <v>65</v>
       </c>
       <c r="B125" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C125" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D125" t="s">
         <v>225</v>
@@ -9720,22 +9959,22 @@
         <v>-2.0613634589999998</v>
       </c>
       <c r="I125" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="J125" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="K125" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N125" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="O125" t="s">
         <v>213</v>
       </c>
       <c r="P125" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="Q125">
         <v>95</v>
@@ -9746,10 +9985,10 @@
         <v>65</v>
       </c>
       <c r="B126" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C126" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="D126" t="s">
         <v>17</v>
@@ -9767,22 +10006,22 @@
         <v>-2.0525980000000001</v>
       </c>
       <c r="I126" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="J126" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="K126" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N126" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="O126" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="P126" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="Q126">
         <v>56</v>
@@ -9793,10 +10032,10 @@
         <v>65</v>
       </c>
       <c r="B127" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C127" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="D127" t="s">
         <v>17</v>
@@ -9814,22 +10053,22 @@
         <v>-2.0515894889999999</v>
       </c>
       <c r="I127" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="J127" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="K127" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N127" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="O127" t="s">
         <v>221</v>
       </c>
       <c r="P127" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="Q127">
         <v>107</v>
@@ -9840,10 +10079,10 @@
         <v>65</v>
       </c>
       <c r="B128" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C128" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D128" t="s">
         <v>17</v>
@@ -9861,22 +10100,22 @@
         <v>-2.0502805710000001</v>
       </c>
       <c r="I128" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="J128" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="K128" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N128" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="O128" t="s">
         <v>213</v>
       </c>
       <c r="P128" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="Q128">
         <v>58</v>
@@ -9887,10 +10126,10 @@
         <v>65</v>
       </c>
       <c r="B129" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C129" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D129" t="s">
         <v>17</v>
@@ -9908,34 +10147,25 @@
         <v>-2.0488214490000001</v>
       </c>
       <c r="I129" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="J129" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K129" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M129" t="s">
-        <v>123</v>
-      </c>
-      <c r="N129" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="O129" s="3" t="s">
+      <c r="N129" s="9" t="s">
+        <v>1070</v>
+      </c>
+      <c r="O129" s="9" t="s">
         <v>213</v>
       </c>
       <c r="P129" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q129" t="s">
-        <v>62</v>
-      </c>
-      <c r="R129" t="s">
-        <v>661</v>
-      </c>
-      <c r="S129" t="s">
-        <v>662</v>
+        <v>1071</v>
+      </c>
+      <c r="Q129">
+        <v>113</v>
       </c>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
@@ -9943,10 +10173,10 @@
         <v>65</v>
       </c>
       <c r="B130" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C130" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="D130" t="s">
         <v>17</v>
@@ -9964,22 +10194,22 @@
         <v>-2.0476841929999998</v>
       </c>
       <c r="I130" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J130" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="K130" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N130" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="O130" t="s">
         <v>221</v>
       </c>
       <c r="P130" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="Q130">
         <v>83</v>
@@ -9990,10 +10220,10 @@
         <v>65</v>
       </c>
       <c r="B131" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C131" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D131" t="s">
         <v>17</v>
@@ -10011,34 +10241,25 @@
         <v>-2.0473408700000002</v>
       </c>
       <c r="I131" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="J131" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="K131" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M131" t="s">
-        <v>123</v>
-      </c>
-      <c r="N131" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="O131" s="3" t="s">
+      <c r="N131" s="9" t="s">
+        <v>1072</v>
+      </c>
+      <c r="O131" s="9" t="s">
         <v>213</v>
       </c>
       <c r="P131" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q131" t="s">
-        <v>62</v>
-      </c>
-      <c r="R131" t="s">
-        <v>669</v>
-      </c>
-      <c r="S131" t="s">
-        <v>670</v>
+        <v>1073</v>
+      </c>
+      <c r="Q131">
+        <v>224</v>
       </c>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
@@ -10046,10 +10267,10 @@
         <v>65</v>
       </c>
       <c r="B132" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C132" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D132" t="s">
         <v>17</v>
@@ -10067,31 +10288,25 @@
         <v>-2.0431566239999999</v>
       </c>
       <c r="I132" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="J132" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="K132" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M132" t="s">
-        <v>987</v>
-      </c>
-      <c r="N132" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="O132" s="3" t="s">
+      <c r="N132" s="9" t="s">
+        <v>1074</v>
+      </c>
+      <c r="O132" s="9" t="s">
         <v>213</v>
       </c>
       <c r="P132" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q132" t="s">
-        <v>62</v>
-      </c>
-      <c r="R132" t="s">
-        <v>673</v>
+        <v>1075</v>
+      </c>
+      <c r="Q132">
+        <v>70</v>
       </c>
       <c r="S132" t="s">
         <v>64</v>
@@ -10102,10 +10317,10 @@
         <v>65</v>
       </c>
       <c r="B133" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="C133" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="D133" t="s">
         <v>17</v>
@@ -10123,22 +10338,22 @@
         <v>-2.0394659040000001</v>
       </c>
       <c r="I133" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="J133" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="K133" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N133" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="O133" t="s">
         <v>309</v>
       </c>
       <c r="P133" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="Q133">
         <v>213</v>
@@ -10149,10 +10364,10 @@
         <v>65</v>
       </c>
       <c r="B134" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="C134" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="D134" t="s">
         <v>17</v>
@@ -10170,28 +10385,28 @@
         <v>-2.0311832430000001</v>
       </c>
       <c r="I134" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="J134" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="K134" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N134" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="O134" t="s">
         <v>309</v>
       </c>
       <c r="P134" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="Q134">
         <v>100</v>
       </c>
       <c r="S134" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
@@ -10199,10 +10414,10 @@
         <v>65</v>
       </c>
       <c r="B135" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="C135" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="D135" t="s">
         <v>17</v>
@@ -10220,22 +10435,22 @@
         <v>-2.0288228990000001</v>
       </c>
       <c r="I135" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="J135" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="K135" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N135" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="O135" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="P135" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="Q135">
         <v>57</v>
@@ -10246,10 +10461,10 @@
         <v>65</v>
       </c>
       <c r="B136" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C136" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="D136" t="s">
         <v>120</v>
@@ -10267,22 +10482,22 @@
         <v>-2.0244455339999998</v>
       </c>
       <c r="I136" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="J136" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="K136" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N136" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="O136" t="s">
         <v>309</v>
       </c>
       <c r="P136" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="Q136">
         <v>24</v>
@@ -10293,10 +10508,10 @@
         <v>65</v>
       </c>
       <c r="B137" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C137" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="D137" t="s">
         <v>120</v>
@@ -10314,22 +10529,22 @@
         <v>-2.0244026179999999</v>
       </c>
       <c r="I137" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="J137" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="K137" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N137" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="O137" t="s">
         <v>309</v>
       </c>
       <c r="P137" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="Q137">
         <v>90</v>
@@ -10340,10 +10555,10 @@
         <v>65</v>
       </c>
       <c r="B138" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C138" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="D138" t="s">
         <v>120</v>
@@ -10361,22 +10576,22 @@
         <v>-2.0231366159999999</v>
       </c>
       <c r="I138" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="J138" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="K138" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N138" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="O138" t="s">
         <v>309</v>
       </c>
       <c r="P138" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="Q138">
         <v>65</v>
@@ -10387,10 +10602,10 @@
         <v>65</v>
       </c>
       <c r="B139" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="C139" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="D139" t="s">
         <v>17</v>
@@ -10408,22 +10623,22 @@
         <v>-2.0065498349999999</v>
       </c>
       <c r="I139" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="J139" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="K139" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N139" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="O139" t="s">
         <v>309</v>
       </c>
       <c r="P139" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="Q139">
         <v>70</v>
@@ -10434,10 +10649,10 @@
         <v>65</v>
       </c>
       <c r="B140" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C140" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="D140" t="s">
         <v>120</v>
@@ -10455,22 +10670,22 @@
         <v>-2.0051228999999999</v>
       </c>
       <c r="I140" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="J140" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="K140" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N140" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="O140" t="s">
         <v>309</v>
       </c>
       <c r="P140" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="Q140">
         <v>33</v>
@@ -10481,10 +10696,10 @@
         <v>65</v>
       </c>
       <c r="B141" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="C141" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="D141" t="s">
         <v>17</v>
@@ -10502,22 +10717,22 @@
         <v>-1.9969153399999999</v>
       </c>
       <c r="I141" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="J141" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="K141" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N141" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="O141" t="s">
         <v>309</v>
       </c>
       <c r="P141" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="Q141">
         <v>121</v>
@@ -10528,10 +10743,10 @@
         <v>65</v>
       </c>
       <c r="B142" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C142" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="D142" t="s">
         <v>17</v>
@@ -10549,22 +10764,22 @@
         <v>-1.9964218140000001</v>
       </c>
       <c r="I142" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="J142" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="K142" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N142" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="O142" t="s">
         <v>309</v>
       </c>
       <c r="P142" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="Q142">
         <v>66</v>
@@ -10575,13 +10790,13 @@
         <v>65</v>
       </c>
       <c r="B143" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="C143" t="s">
-        <v>1010</v>
+        <v>999</v>
       </c>
       <c r="D143" t="s">
-        <v>1012</v>
+        <v>1001</v>
       </c>
       <c r="E143">
         <v>401112.64559999999</v>
@@ -10596,23 +10811,23 @@
         <v>-1.9847059250000001</v>
       </c>
       <c r="I143" t="s">
-        <v>1013</v>
+        <v>1002</v>
       </c>
       <c r="J143" t="s">
-        <v>1014</v>
+        <v>1003</v>
       </c>
       <c r="K143" s="2" t="str">
         <f t="shared" ref="K143:K144" si="3">HYPERLINK(J143, "URL Link")</f>
         <v>URL Link</v>
       </c>
       <c r="N143" t="s">
-        <v>1017</v>
+        <v>1006</v>
       </c>
       <c r="O143" t="s">
         <v>221</v>
       </c>
       <c r="P143" t="s">
-        <v>1020</v>
+        <v>1009</v>
       </c>
       <c r="Q143">
         <v>55</v>
@@ -10623,13 +10838,13 @@
         <v>65</v>
       </c>
       <c r="B144" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="C144" t="s">
-        <v>1011</v>
+        <v>1000</v>
       </c>
       <c r="D144" t="s">
-        <v>999</v>
+        <v>988</v>
       </c>
       <c r="E144">
         <v>401488.20750000002</v>
@@ -10644,23 +10859,23 @@
         <v>-1.978880167</v>
       </c>
       <c r="I144" t="s">
-        <v>1015</v>
+        <v>1004</v>
       </c>
       <c r="J144" t="s">
-        <v>1016</v>
+        <v>1005</v>
       </c>
       <c r="K144" s="2" t="str">
         <f t="shared" si="3"/>
         <v>URL Link</v>
       </c>
       <c r="N144" t="s">
-        <v>1018</v>
+        <v>1007</v>
       </c>
       <c r="O144" t="s">
         <v>309</v>
       </c>
       <c r="P144" t="s">
-        <v>1019</v>
+        <v>1008</v>
       </c>
       <c r="Q144">
         <v>397</v>
@@ -10671,10 +10886,10 @@
         <v>65</v>
       </c>
       <c r="B145" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="C145" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="D145" t="s">
         <v>17</v>
@@ -10692,22 +10907,22 @@
         <v>-1.9645679</v>
       </c>
       <c r="I145" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="J145" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="K145" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N145" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="O145" t="s">
         <v>309</v>
       </c>
       <c r="P145" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="Q145">
         <v>72</v>
@@ -10718,10 +10933,10 @@
         <v>65</v>
       </c>
       <c r="B146" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C146" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="D146" t="s">
         <v>225</v>
@@ -10739,22 +10954,22 @@
         <v>-1.9477987290000001</v>
       </c>
       <c r="I146" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="J146" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="K146" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N146" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="O146" t="s">
         <v>309</v>
       </c>
       <c r="P146" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="Q146">
         <v>19</v>
@@ -10765,10 +10980,10 @@
         <v>65</v>
       </c>
       <c r="B147" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="C147" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="D147" t="s">
         <v>17</v>
@@ -10786,22 +11001,22 @@
         <v>-1.9305682179999999</v>
       </c>
       <c r="I147" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="J147" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="K147" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N147" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="O147" t="s">
         <v>309</v>
       </c>
       <c r="P147" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="Q147">
         <v>167</v>
@@ -10812,10 +11027,10 @@
         <v>65</v>
       </c>
       <c r="B148" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="C148" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="D148" t="s">
         <v>17</v>
@@ -10833,22 +11048,22 @@
         <v>-1.9288730620000001</v>
       </c>
       <c r="I148" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="J148" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="K148" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N148" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="O148" t="s">
         <v>309</v>
       </c>
       <c r="P148" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="Q148">
         <v>108</v>
@@ -10859,10 +11074,10 @@
         <v>65</v>
       </c>
       <c r="B149" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="C149" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="D149" t="s">
         <v>17</v>
@@ -10880,22 +11095,22 @@
         <v>-1.9140672679999999</v>
       </c>
       <c r="I149" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="J149" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="K149" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N149" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="O149" t="s">
         <v>309</v>
       </c>
       <c r="P149" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="Q149">
         <v>160</v>
@@ -10906,10 +11121,10 @@
         <v>65</v>
       </c>
       <c r="B150" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="C150" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="D150" t="s">
         <v>17</v>
@@ -10927,22 +11142,22 @@
         <v>-1.9136381149999999</v>
       </c>
       <c r="I150" t="s">
-        <v>745</v>
+        <v>736</v>
       </c>
       <c r="J150" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="K150" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N150" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="O150" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="P150" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="Q150">
         <v>46</v>
@@ -10953,10 +11168,10 @@
         <v>65</v>
       </c>
       <c r="B151" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C151" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="D151" t="s">
         <v>17</v>
@@ -10974,22 +11189,22 @@
         <v>-1.906544206</v>
       </c>
       <c r="I151" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
       <c r="J151" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="K151" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N151" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="O151" t="s">
         <v>309</v>
       </c>
       <c r="P151" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="Q151">
         <v>23</v>
@@ -11000,10 +11215,10 @@
         <v>65</v>
       </c>
       <c r="B152" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="C152" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="D152" t="s">
         <v>17</v>
@@ -11021,22 +11236,22 @@
         <v>-1.8941116330000001</v>
       </c>
       <c r="I152" t="s">
-        <v>755</v>
+        <v>746</v>
       </c>
       <c r="J152" t="s">
-        <v>756</v>
+        <v>747</v>
       </c>
       <c r="K152" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N152" t="s">
-        <v>757</v>
+        <v>748</v>
       </c>
       <c r="O152" t="s">
         <v>309</v>
       </c>
       <c r="P152" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="Q152">
         <v>105</v>
@@ -11047,10 +11262,10 @@
         <v>65</v>
       </c>
       <c r="B153" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="C153" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="D153" t="s">
         <v>225</v>
@@ -11068,22 +11283,22 @@
         <v>-1.891740561</v>
       </c>
       <c r="I153" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="J153" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="K153" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N153" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="O153" t="s">
         <v>309</v>
       </c>
       <c r="P153" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="Q153">
         <v>157</v>
@@ -11094,10 +11309,10 @@
         <v>65</v>
       </c>
       <c r="B154" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="C154" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="D154" t="s">
         <v>17</v>
@@ -11115,22 +11330,22 @@
         <v>-1.8805718419999999</v>
       </c>
       <c r="I154" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="J154" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="K154" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N154" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="O154" t="s">
         <v>309</v>
       </c>
       <c r="P154" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="Q154">
         <v>17</v>
@@ -11141,10 +11356,10 @@
         <v>65</v>
       </c>
       <c r="B155" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="C155" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="D155" t="s">
         <v>17</v>
@@ -11162,28 +11377,28 @@
         <v>-1.871259212</v>
       </c>
       <c r="I155" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="J155" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="K155" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N155" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="O155" t="s">
         <v>309</v>
       </c>
       <c r="P155" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="Q155">
         <v>122</v>
       </c>
       <c r="S155" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.25">
@@ -11191,10 +11406,10 @@
         <v>65</v>
       </c>
       <c r="B156" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="C156" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="D156" t="s">
         <v>17</v>
@@ -11212,34 +11427,34 @@
         <v>-1.8601441379999999</v>
       </c>
       <c r="I156" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="J156" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="K156" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M156" t="s">
-        <v>123</v>
-      </c>
-      <c r="N156" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="O156" s="3" t="s">
-        <v>508</v>
+      <c r="M156" s="10" t="s">
+        <v>1109</v>
+      </c>
+      <c r="N156" s="9" t="s">
+        <v>1091</v>
+      </c>
+      <c r="O156" s="9" t="s">
+        <v>506</v>
       </c>
       <c r="P156" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q156" t="s">
-        <v>62</v>
+        <v>1090</v>
+      </c>
+      <c r="Q156">
+        <v>27</v>
       </c>
       <c r="R156" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="S156" t="s">
-        <v>780</v>
+        <v>771</v>
       </c>
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.25">
@@ -11247,10 +11462,10 @@
         <v>65</v>
       </c>
       <c r="B157" t="s">
-        <v>781</v>
+        <v>772</v>
       </c>
       <c r="C157" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="D157" t="s">
         <v>17</v>
@@ -11268,34 +11483,34 @@
         <v>-1.8311204940000001</v>
       </c>
       <c r="I157" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="J157" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="K157" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M157" t="s">
-        <v>123</v>
-      </c>
-      <c r="N157" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="O157" s="3" t="s">
-        <v>508</v>
+      <c r="M157" s="10" t="s">
+        <v>1109</v>
+      </c>
+      <c r="N157" s="9" t="s">
+        <v>1092</v>
+      </c>
+      <c r="O157" s="9" t="s">
+        <v>506</v>
       </c>
       <c r="P157" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q157" t="s">
-        <v>62</v>
+        <v>1093</v>
+      </c>
+      <c r="Q157">
+        <v>102</v>
       </c>
       <c r="R157" t="s">
-        <v>785</v>
+        <v>776</v>
       </c>
       <c r="S157" t="s">
-        <v>780</v>
+        <v>771</v>
       </c>
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.25">
@@ -11303,10 +11518,10 @@
         <v>65</v>
       </c>
       <c r="B158" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="C158" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="D158" t="s">
         <v>17</v>
@@ -11324,22 +11539,22 @@
         <v>-1.819578409</v>
       </c>
       <c r="I158" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="J158" t="s">
-        <v>788</v>
+        <v>779</v>
       </c>
       <c r="K158" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N158" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="O158" t="s">
         <v>309</v>
       </c>
       <c r="P158" t="s">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="Q158">
         <v>66</v>
@@ -11350,10 +11565,10 @@
         <v>65</v>
       </c>
       <c r="B159" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="C159" t="s">
-        <v>791</v>
+        <v>782</v>
       </c>
       <c r="D159" t="s">
         <v>17</v>
@@ -11371,10 +11586,10 @@
         <v>-1.8172073360000001</v>
       </c>
       <c r="I159" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="J159" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="K159" s="2" t="s">
         <v>20</v>
@@ -11395,10 +11610,10 @@
         <v>62</v>
       </c>
       <c r="R159" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
       <c r="S159" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.25">
@@ -11406,10 +11621,10 @@
         <v>65</v>
       </c>
       <c r="B160" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="C160" t="s">
-        <v>791</v>
+        <v>782</v>
       </c>
       <c r="D160" t="s">
         <v>17</v>
@@ -11427,34 +11642,34 @@
         <v>-1.7976593970000001</v>
       </c>
       <c r="I160" t="s">
-        <v>796</v>
-      </c>
-      <c r="J160" t="s">
-        <v>797</v>
+        <v>787</v>
+      </c>
+      <c r="J160" s="2" t="s">
+        <v>788</v>
       </c>
       <c r="K160" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M160" t="s">
-        <v>123</v>
-      </c>
-      <c r="N160" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="O160" s="3" t="s">
+      <c r="M160" s="10" t="s">
+        <v>1109</v>
+      </c>
+      <c r="N160" s="9" t="s">
+        <v>1095</v>
+      </c>
+      <c r="O160" s="9" t="s">
         <v>309</v>
       </c>
       <c r="P160" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q160" t="s">
-        <v>62</v>
+        <v>1094</v>
+      </c>
+      <c r="Q160">
+        <v>309</v>
       </c>
       <c r="R160" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="S160" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
     </row>
     <row r="161" spans="1:19" x14ac:dyDescent="0.25">
@@ -11462,10 +11677,10 @@
         <v>65</v>
       </c>
       <c r="B161" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="C161" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="D161" t="s">
         <v>17</v>
@@ -11483,22 +11698,22 @@
         <v>-1.7915525459999999</v>
       </c>
       <c r="I161" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
       <c r="J161" t="s">
-        <v>801</v>
+        <v>792</v>
       </c>
       <c r="K161" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N161" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="O161" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="P161" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="Q161">
         <v>88</v>
@@ -11509,10 +11724,10 @@
         <v>65</v>
       </c>
       <c r="B162" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="C162" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
       <c r="D162" t="s">
         <v>17</v>
@@ -11530,34 +11745,34 @@
         <v>-1.789419651</v>
       </c>
       <c r="I162" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="J162" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
       <c r="K162" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M162" t="s">
-        <v>123</v>
-      </c>
-      <c r="N162" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="O162" s="3" t="s">
-        <v>508</v>
+      <c r="M162" s="10" t="s">
+        <v>1109</v>
+      </c>
+      <c r="N162" s="9" t="s">
+        <v>1096</v>
+      </c>
+      <c r="O162" s="9" t="s">
+        <v>506</v>
       </c>
       <c r="P162" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q162" t="s">
-        <v>62</v>
+        <v>1097</v>
+      </c>
+      <c r="Q162">
+        <v>30</v>
       </c>
       <c r="R162" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="S162" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
     </row>
     <row r="163" spans="1:19" x14ac:dyDescent="0.25">
@@ -11565,10 +11780,10 @@
         <v>65</v>
       </c>
       <c r="B163" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="C163" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
       <c r="D163" t="s">
         <v>17</v>
@@ -11586,22 +11801,22 @@
         <v>-1.781673431</v>
       </c>
       <c r="I163" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
       <c r="J163" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
       <c r="K163" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N163" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
       <c r="O163" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="P163" t="s">
-        <v>813</v>
+        <v>804</v>
       </c>
       <c r="Q163">
         <v>72</v>
@@ -11612,10 +11827,10 @@
         <v>65</v>
       </c>
       <c r="B164" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="C164" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
       <c r="D164" t="s">
         <v>17</v>
@@ -11633,22 +11848,22 @@
         <v>-1.7814159389999999</v>
       </c>
       <c r="I164" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
       <c r="J164" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
       <c r="K164" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N164" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="O164" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="P164" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="Q164">
         <v>62</v>
@@ -11659,10 +11874,10 @@
         <v>65</v>
       </c>
       <c r="B165" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="C165" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
       <c r="D165" t="s">
         <v>17</v>
@@ -11680,34 +11895,34 @@
         <v>-1.7807078359999999</v>
       </c>
       <c r="I165" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="J165" t="s">
-        <v>819</v>
+        <v>810</v>
       </c>
       <c r="K165" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M165" t="s">
-        <v>123</v>
-      </c>
-      <c r="N165" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="O165" s="3" t="s">
-        <v>508</v>
+      <c r="M165" s="10" t="s">
+        <v>1109</v>
+      </c>
+      <c r="N165" s="9" t="s">
+        <v>1098</v>
+      </c>
+      <c r="O165" s="9" t="s">
+        <v>506</v>
       </c>
       <c r="P165" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q165" t="s">
-        <v>62</v>
+        <v>1099</v>
+      </c>
+      <c r="Q165">
+        <v>18</v>
       </c>
       <c r="R165" t="s">
-        <v>820</v>
+        <v>811</v>
       </c>
       <c r="S165" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
     </row>
     <row r="166" spans="1:19" x14ac:dyDescent="0.25">
@@ -11715,10 +11930,10 @@
         <v>65</v>
       </c>
       <c r="B166" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="C166" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
       <c r="D166" t="s">
         <v>17</v>
@@ -11736,22 +11951,22 @@
         <v>-1.7722535129999999</v>
       </c>
       <c r="I166" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="J166" t="s">
-        <v>822</v>
+        <v>813</v>
       </c>
       <c r="K166" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N166" t="s">
-        <v>823</v>
+        <v>814</v>
       </c>
       <c r="O166" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="P166" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="Q166">
         <v>88</v>
@@ -11762,10 +11977,10 @@
         <v>65</v>
       </c>
       <c r="B167" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="C167" t="s">
-        <v>826</v>
+        <v>817</v>
       </c>
       <c r="D167" t="s">
         <v>17</v>
@@ -11783,34 +11998,25 @@
         <v>-1.768358946</v>
       </c>
       <c r="I167" t="s">
-        <v>827</v>
+        <v>818</v>
       </c>
       <c r="J167" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
       <c r="K167" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M167" t="s">
-        <v>123</v>
-      </c>
-      <c r="N167" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="O167" s="3" t="s">
+      <c r="N167" s="9" t="s">
+        <v>1076</v>
+      </c>
+      <c r="O167" s="9" t="s">
         <v>309</v>
       </c>
       <c r="P167" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q167" t="s">
-        <v>62</v>
-      </c>
-      <c r="R167" t="s">
-        <v>829</v>
-      </c>
-      <c r="S167" t="s">
-        <v>830</v>
+        <v>1077</v>
+      </c>
+      <c r="Q167">
+        <v>25</v>
       </c>
     </row>
     <row r="168" spans="1:19" x14ac:dyDescent="0.25">
@@ -11818,10 +12024,10 @@
         <v>65</v>
       </c>
       <c r="B168" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="C168" t="s">
-        <v>831</v>
+        <v>820</v>
       </c>
       <c r="D168" t="s">
         <v>17</v>
@@ -11839,22 +12045,22 @@
         <v>-1.748446226</v>
       </c>
       <c r="I168" t="s">
-        <v>832</v>
+        <v>821</v>
       </c>
       <c r="J168" t="s">
-        <v>833</v>
+        <v>822</v>
       </c>
       <c r="K168" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N168" t="s">
-        <v>834</v>
+        <v>823</v>
       </c>
       <c r="O168" t="s">
         <v>309</v>
       </c>
       <c r="P168" t="s">
-        <v>835</v>
+        <v>824</v>
       </c>
       <c r="Q168">
         <v>63</v>
@@ -11865,10 +12071,10 @@
         <v>65</v>
       </c>
       <c r="B169" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="C169" t="s">
-        <v>836</v>
+        <v>825</v>
       </c>
       <c r="D169" t="s">
         <v>17</v>
@@ -11886,22 +12092,22 @@
         <v>-1.7285871509999999</v>
       </c>
       <c r="I169" t="s">
-        <v>837</v>
+        <v>826</v>
       </c>
       <c r="J169" t="s">
-        <v>838</v>
+        <v>827</v>
       </c>
       <c r="K169" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N169" t="s">
-        <v>839</v>
+        <v>828</v>
       </c>
       <c r="O169" t="s">
         <v>309</v>
       </c>
       <c r="P169" t="s">
-        <v>840</v>
+        <v>829</v>
       </c>
       <c r="Q169">
         <v>105</v>
@@ -11912,10 +12118,10 @@
         <v>65</v>
       </c>
       <c r="B170" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="C170" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
       <c r="D170" t="s">
         <v>17</v>
@@ -11933,22 +12139,22 @@
         <v>-1.7256367210000001</v>
       </c>
       <c r="I170" t="s">
-        <v>841</v>
+        <v>830</v>
       </c>
       <c r="J170" t="s">
-        <v>842</v>
+        <v>831</v>
       </c>
       <c r="K170" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N170" t="s">
-        <v>843</v>
+        <v>832</v>
       </c>
       <c r="O170" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="P170" t="s">
-        <v>844</v>
+        <v>833</v>
       </c>
       <c r="Q170">
         <v>92</v>
@@ -11959,10 +12165,10 @@
         <v>65</v>
       </c>
       <c r="B171" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="C171" t="s">
-        <v>845</v>
+        <v>834</v>
       </c>
       <c r="D171" t="s">
         <v>17</v>
@@ -11980,22 +12186,22 @@
         <v>-1.7184376720000001</v>
       </c>
       <c r="I171" t="s">
-        <v>846</v>
+        <v>835</v>
       </c>
       <c r="J171" t="s">
-        <v>847</v>
+        <v>836</v>
       </c>
       <c r="K171" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N171" t="s">
-        <v>848</v>
+        <v>837</v>
       </c>
       <c r="O171" t="s">
         <v>309</v>
       </c>
       <c r="P171" t="s">
-        <v>849</v>
+        <v>838</v>
       </c>
       <c r="Q171">
         <v>36</v>
@@ -12006,10 +12212,10 @@
         <v>65</v>
       </c>
       <c r="B172" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="C172" t="s">
-        <v>850</v>
+        <v>839</v>
       </c>
       <c r="D172" t="s">
         <v>17</v>
@@ -12027,22 +12233,22 @@
         <v>-1.716120243</v>
       </c>
       <c r="I172" t="s">
-        <v>851</v>
+        <v>840</v>
       </c>
       <c r="J172" t="s">
-        <v>852</v>
+        <v>841</v>
       </c>
       <c r="K172" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N172" t="s">
-        <v>853</v>
+        <v>842</v>
       </c>
       <c r="O172" t="s">
         <v>309</v>
       </c>
       <c r="P172" t="s">
-        <v>854</v>
+        <v>843</v>
       </c>
       <c r="Q172">
         <v>39</v>
@@ -12053,10 +12259,10 @@
         <v>65</v>
       </c>
       <c r="B173" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="C173" t="s">
-        <v>855</v>
+        <v>844</v>
       </c>
       <c r="D173" t="s">
         <v>17</v>
@@ -12074,22 +12280,22 @@
         <v>-1.7151546479999999</v>
       </c>
       <c r="I173" t="s">
-        <v>856</v>
+        <v>845</v>
       </c>
       <c r="J173" t="s">
-        <v>857</v>
+        <v>846</v>
       </c>
       <c r="K173" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N173" t="s">
-        <v>858</v>
+        <v>847</v>
       </c>
       <c r="O173" t="s">
         <v>309</v>
       </c>
       <c r="P173" t="s">
-        <v>859</v>
+        <v>848</v>
       </c>
       <c r="Q173">
         <v>122</v>
@@ -12100,10 +12306,10 @@
         <v>65</v>
       </c>
       <c r="B174" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="C174" t="s">
-        <v>850</v>
+        <v>839</v>
       </c>
       <c r="D174" t="s">
         <v>17</v>
@@ -12121,22 +12327,22 @@
         <v>-1.7059600349999999</v>
       </c>
       <c r="I174" t="s">
-        <v>860</v>
+        <v>849</v>
       </c>
       <c r="J174" t="s">
-        <v>861</v>
+        <v>850</v>
       </c>
       <c r="K174" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N174" t="s">
-        <v>862</v>
+        <v>851</v>
       </c>
       <c r="O174" t="s">
         <v>309</v>
       </c>
       <c r="P174" t="s">
-        <v>863</v>
+        <v>852</v>
       </c>
       <c r="Q174">
         <v>102</v>
@@ -12147,10 +12353,10 @@
         <v>65</v>
       </c>
       <c r="B175" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="C175" t="s">
-        <v>864</v>
+        <v>853</v>
       </c>
       <c r="D175" t="s">
         <v>17</v>
@@ -12168,28 +12374,28 @@
         <v>-1.702494621</v>
       </c>
       <c r="I175" t="s">
-        <v>865</v>
+        <v>854</v>
       </c>
       <c r="J175" t="s">
-        <v>866</v>
+        <v>855</v>
       </c>
       <c r="K175" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N175" t="s">
-        <v>867</v>
+        <v>856</v>
       </c>
       <c r="O175" t="s">
         <v>309</v>
       </c>
       <c r="P175" t="s">
-        <v>868</v>
+        <v>857</v>
       </c>
       <c r="Q175">
         <v>33</v>
       </c>
       <c r="S175" t="s">
-        <v>869</v>
+        <v>858</v>
       </c>
     </row>
     <row r="176" spans="1:19" x14ac:dyDescent="0.25">
@@ -12197,10 +12403,10 @@
         <v>65</v>
       </c>
       <c r="B176" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="C176" t="s">
-        <v>845</v>
+        <v>834</v>
       </c>
       <c r="D176" t="s">
         <v>17</v>
@@ -12218,22 +12424,22 @@
         <v>-1.7007265149999999</v>
       </c>
       <c r="I176" t="s">
-        <v>870</v>
+        <v>859</v>
       </c>
       <c r="J176" t="s">
-        <v>871</v>
+        <v>860</v>
       </c>
       <c r="K176" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N176" t="s">
-        <v>872</v>
+        <v>861</v>
       </c>
       <c r="O176" t="s">
         <v>309</v>
       </c>
       <c r="P176" t="s">
-        <v>873</v>
+        <v>862</v>
       </c>
       <c r="Q176">
         <v>143</v>
@@ -12244,10 +12450,10 @@
         <v>65</v>
       </c>
       <c r="B177" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="C177" t="s">
-        <v>874</v>
+        <v>863</v>
       </c>
       <c r="D177" t="s">
         <v>17</v>
@@ -12265,22 +12471,22 @@
         <v>-1.7000377179999999</v>
       </c>
       <c r="I177" t="s">
-        <v>875</v>
+        <v>864</v>
       </c>
       <c r="J177" t="s">
-        <v>876</v>
+        <v>865</v>
       </c>
       <c r="K177" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N177" t="s">
-        <v>877</v>
+        <v>866</v>
       </c>
       <c r="O177" t="s">
         <v>309</v>
       </c>
       <c r="P177" t="s">
-        <v>878</v>
+        <v>867</v>
       </c>
       <c r="Q177">
         <v>177</v>
@@ -12291,10 +12497,10 @@
         <v>65</v>
       </c>
       <c r="B178" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
       <c r="C178" t="s">
-        <v>880</v>
+        <v>869</v>
       </c>
       <c r="D178" t="s">
         <v>17</v>
@@ -12312,22 +12518,22 @@
         <v>-1.692913771</v>
       </c>
       <c r="I178" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
       <c r="J178" t="s">
-        <v>882</v>
+        <v>871</v>
       </c>
       <c r="K178" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N178" t="s">
-        <v>883</v>
+        <v>872</v>
       </c>
       <c r="O178" t="s">
         <v>309</v>
       </c>
       <c r="P178" t="s">
-        <v>884</v>
+        <v>873</v>
       </c>
       <c r="Q178">
         <v>84</v>
@@ -12338,10 +12544,10 @@
         <v>65</v>
       </c>
       <c r="B179" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="C179" t="s">
-        <v>885</v>
+        <v>874</v>
       </c>
       <c r="D179" t="s">
         <v>17</v>
@@ -12359,22 +12565,22 @@
         <v>-1.6778826710000001</v>
       </c>
       <c r="I179" t="s">
-        <v>886</v>
+        <v>875</v>
       </c>
       <c r="J179" t="s">
-        <v>887</v>
+        <v>876</v>
       </c>
       <c r="K179" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N179" t="s">
-        <v>888</v>
+        <v>877</v>
       </c>
       <c r="O179" t="s">
         <v>309</v>
       </c>
       <c r="P179" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
       <c r="Q179">
         <v>84</v>
@@ -12385,10 +12591,10 @@
         <v>65</v>
       </c>
       <c r="B180" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="C180" t="s">
-        <v>845</v>
+        <v>834</v>
       </c>
       <c r="D180" t="s">
         <v>17</v>
@@ -12406,22 +12612,22 @@
         <v>-1.6740846629999999</v>
       </c>
       <c r="I180" t="s">
-        <v>890</v>
+        <v>879</v>
       </c>
       <c r="J180" t="s">
-        <v>891</v>
+        <v>880</v>
       </c>
       <c r="K180" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N180" t="s">
-        <v>892</v>
+        <v>881</v>
       </c>
       <c r="O180" t="s">
         <v>309</v>
       </c>
       <c r="P180" t="s">
-        <v>893</v>
+        <v>882</v>
       </c>
       <c r="Q180">
         <v>39</v>
@@ -12432,10 +12638,10 @@
         <v>65</v>
       </c>
       <c r="B181" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="C181" t="s">
-        <v>874</v>
+        <v>863</v>
       </c>
       <c r="D181" t="s">
         <v>17</v>
@@ -12453,28 +12659,28 @@
         <v>-1.6646647450000001</v>
       </c>
       <c r="I181" t="s">
-        <v>894</v>
+        <v>883</v>
       </c>
       <c r="J181" t="s">
-        <v>895</v>
+        <v>884</v>
       </c>
       <c r="K181" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N181" t="s">
-        <v>896</v>
+        <v>885</v>
       </c>
       <c r="O181" t="s">
         <v>309</v>
       </c>
       <c r="P181" t="s">
-        <v>897</v>
+        <v>886</v>
       </c>
       <c r="Q181">
         <v>12</v>
       </c>
       <c r="S181" t="s">
-        <v>898</v>
+        <v>887</v>
       </c>
     </row>
     <row r="182" spans="1:19" x14ac:dyDescent="0.25">
@@ -12482,10 +12688,10 @@
         <v>65</v>
       </c>
       <c r="B182" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="C182" t="s">
-        <v>899</v>
+        <v>888</v>
       </c>
       <c r="D182" t="s">
         <v>17</v>
@@ -12503,28 +12709,28 @@
         <v>-1.6626584529999999</v>
       </c>
       <c r="I182" t="s">
-        <v>900</v>
+        <v>889</v>
       </c>
       <c r="J182" t="s">
-        <v>901</v>
+        <v>890</v>
       </c>
       <c r="K182" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N182" t="s">
-        <v>902</v>
+        <v>891</v>
       </c>
       <c r="O182" t="s">
         <v>309</v>
       </c>
       <c r="P182" t="s">
-        <v>903</v>
+        <v>892</v>
       </c>
       <c r="Q182">
         <v>371</v>
       </c>
       <c r="S182" t="s">
-        <v>904</v>
+        <v>893</v>
       </c>
     </row>
     <row r="183" spans="1:19" x14ac:dyDescent="0.25">
@@ -12532,10 +12738,10 @@
         <v>65</v>
       </c>
       <c r="B183" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="C183" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
       <c r="D183" t="s">
         <v>17</v>
@@ -12553,28 +12759,28 @@
         <v>-1.6624760629999999</v>
       </c>
       <c r="I183" t="s">
-        <v>906</v>
+        <v>895</v>
       </c>
       <c r="J183" t="s">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="K183" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N183" t="s">
-        <v>908</v>
+        <v>897</v>
       </c>
       <c r="O183" t="s">
         <v>309</v>
       </c>
       <c r="P183" t="s">
-        <v>909</v>
+        <v>898</v>
       </c>
       <c r="Q183">
         <v>30</v>
       </c>
       <c r="S183" t="s">
-        <v>910</v>
+        <v>899</v>
       </c>
     </row>
     <row r="184" spans="1:19" x14ac:dyDescent="0.25">
@@ -12582,10 +12788,10 @@
         <v>65</v>
       </c>
       <c r="B184" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="C184" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
       <c r="D184" t="s">
         <v>17</v>
@@ -12603,28 +12809,28 @@
         <v>-1.652004719</v>
       </c>
       <c r="I184" t="s">
-        <v>911</v>
+        <v>900</v>
       </c>
       <c r="J184" t="s">
-        <v>912</v>
+        <v>901</v>
       </c>
       <c r="K184" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N184" t="s">
-        <v>908</v>
+        <v>897</v>
       </c>
       <c r="O184" t="s">
         <v>309</v>
       </c>
       <c r="P184" t="s">
-        <v>913</v>
+        <v>902</v>
       </c>
       <c r="Q184">
         <v>38</v>
       </c>
       <c r="S184" t="s">
-        <v>914</v>
+        <v>903</v>
       </c>
     </row>
     <row r="185" spans="1:19" x14ac:dyDescent="0.25">
@@ -12632,10 +12838,10 @@
         <v>65</v>
       </c>
       <c r="B185" t="s">
-        <v>915</v>
+        <v>904</v>
       </c>
       <c r="C185" t="s">
-        <v>916</v>
+        <v>905</v>
       </c>
       <c r="D185" t="s">
         <v>25</v>
@@ -12653,10 +12859,10 @@
         <v>-1.633014679</v>
       </c>
       <c r="I185" t="s">
-        <v>917</v>
+        <v>906</v>
       </c>
       <c r="J185" t="s">
-        <v>918</v>
+        <v>907</v>
       </c>
       <c r="K185" s="2" t="s">
         <v>20</v>
@@ -12677,10 +12883,10 @@
         <v>62</v>
       </c>
       <c r="R185" t="s">
-        <v>919</v>
+        <v>908</v>
       </c>
       <c r="S185" t="s">
-        <v>920</v>
+        <v>909</v>
       </c>
     </row>
     <row r="186" spans="1:19" x14ac:dyDescent="0.25">
@@ -12688,10 +12894,10 @@
         <v>65</v>
       </c>
       <c r="B186" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="C186" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
       <c r="D186" t="s">
         <v>17</v>
@@ -12709,22 +12915,22 @@
         <v>-1.624656916</v>
       </c>
       <c r="I186" t="s">
-        <v>921</v>
+        <v>910</v>
       </c>
       <c r="J186" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="K186" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N186" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="O186" t="s">
         <v>309</v>
       </c>
       <c r="P186" t="s">
-        <v>924</v>
+        <v>913</v>
       </c>
       <c r="Q186">
         <v>99</v>
@@ -12735,10 +12941,10 @@
         <v>65</v>
       </c>
       <c r="B187" t="s">
-        <v>925</v>
+        <v>914</v>
       </c>
       <c r="C187" t="s">
-        <v>926</v>
+        <v>915</v>
       </c>
       <c r="D187" t="s">
         <v>17</v>
@@ -12756,22 +12962,22 @@
         <v>-1.3392806049999999</v>
       </c>
       <c r="I187" t="s">
-        <v>927</v>
+        <v>916</v>
       </c>
       <c r="J187" t="s">
-        <v>928</v>
+        <v>917</v>
       </c>
       <c r="K187" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N187" t="s">
-        <v>929</v>
+        <v>918</v>
       </c>
       <c r="O187" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="P187" t="s">
-        <v>930</v>
+        <v>919</v>
       </c>
       <c r="Q187">
         <v>69</v>
@@ -12782,10 +12988,10 @@
         <v>15</v>
       </c>
       <c r="B188" t="s">
-        <v>931</v>
+        <v>920</v>
       </c>
       <c r="C188" t="s">
-        <v>932</v>
+        <v>921</v>
       </c>
       <c r="D188" t="s">
         <v>17</v>
@@ -12803,22 +13009,22 @@
         <v>-1.2739419940000001</v>
       </c>
       <c r="I188" t="s">
-        <v>933</v>
+        <v>922</v>
       </c>
       <c r="J188" t="s">
-        <v>934</v>
+        <v>923</v>
       </c>
       <c r="K188" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N188" t="s">
-        <v>935</v>
+        <v>924</v>
       </c>
       <c r="O188" t="s">
-        <v>936</v>
+        <v>925</v>
       </c>
       <c r="P188" t="s">
-        <v>937</v>
+        <v>926</v>
       </c>
       <c r="Q188">
         <v>98</v>
@@ -12829,13 +13035,13 @@
         <v>65</v>
       </c>
       <c r="B189" t="s">
-        <v>1021</v>
+        <v>1010</v>
       </c>
       <c r="C189" t="s">
-        <v>1022</v>
+        <v>1011</v>
       </c>
       <c r="D189" t="s">
-        <v>993</v>
+        <v>982</v>
       </c>
       <c r="E189">
         <v>468076.46909999999</v>
@@ -12850,29 +13056,29 @@
         <v>-1.002480984</v>
       </c>
       <c r="I189" t="s">
-        <v>1023</v>
+        <v>1012</v>
       </c>
       <c r="J189" t="s">
-        <v>1024</v>
+        <v>1013</v>
       </c>
       <c r="K189" s="2" t="str">
         <f t="shared" ref="K189" si="4">HYPERLINK(J189, "URL Link")</f>
         <v>URL Link</v>
       </c>
       <c r="N189" t="s">
-        <v>1025</v>
+        <v>1014</v>
       </c>
       <c r="O189" t="s">
-        <v>1026</v>
+        <v>1015</v>
       </c>
       <c r="P189" t="s">
-        <v>1027</v>
+        <v>1016</v>
       </c>
       <c r="Q189">
         <v>144</v>
       </c>
       <c r="S189" t="s">
-        <v>1028</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="190" spans="1:19" x14ac:dyDescent="0.25">
@@ -12880,10 +13086,10 @@
         <v>65</v>
       </c>
       <c r="B190" t="s">
-        <v>938</v>
+        <v>927</v>
       </c>
       <c r="C190" t="s">
-        <v>939</v>
+        <v>928</v>
       </c>
       <c r="D190" t="s">
         <v>17</v>
@@ -12901,22 +13107,22 @@
         <v>-0.75145625299999996</v>
       </c>
       <c r="I190" t="s">
-        <v>940</v>
+        <v>929</v>
       </c>
       <c r="J190" t="s">
-        <v>941</v>
+        <v>930</v>
       </c>
       <c r="K190" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N190" t="s">
-        <v>942</v>
+        <v>931</v>
       </c>
       <c r="O190" t="s">
-        <v>943</v>
+        <v>932</v>
       </c>
       <c r="P190" t="s">
-        <v>944</v>
+        <v>933</v>
       </c>
       <c r="Q190">
         <v>110</v>
@@ -12927,10 +13133,10 @@
         <v>65</v>
       </c>
       <c r="B191" t="s">
-        <v>945</v>
+        <v>934</v>
       </c>
       <c r="C191" t="s">
-        <v>946</v>
+        <v>935</v>
       </c>
       <c r="D191" t="s">
         <v>17</v>
@@ -12948,22 +13154,22 @@
         <v>-0.41063547099999997</v>
       </c>
       <c r="I191" t="s">
-        <v>947</v>
+        <v>936</v>
       </c>
       <c r="J191" t="s">
-        <v>948</v>
+        <v>937</v>
       </c>
       <c r="K191" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N191" t="s">
-        <v>949</v>
+        <v>938</v>
       </c>
       <c r="O191" t="s">
-        <v>943</v>
+        <v>932</v>
       </c>
       <c r="P191" t="s">
-        <v>950</v>
+        <v>939</v>
       </c>
       <c r="Q191">
         <v>16</v>
@@ -12974,10 +13180,10 @@
         <v>65</v>
       </c>
       <c r="B192" t="s">
-        <v>951</v>
+        <v>940</v>
       </c>
       <c r="C192" t="s">
-        <v>952</v>
+        <v>941</v>
       </c>
       <c r="D192" t="s">
         <v>17</v>
@@ -12995,22 +13201,22 @@
         <v>-0.36422252700000002</v>
       </c>
       <c r="I192" t="s">
-        <v>953</v>
+        <v>942</v>
       </c>
       <c r="J192" t="s">
-        <v>954</v>
+        <v>943</v>
       </c>
       <c r="K192" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N192" t="s">
-        <v>955</v>
+        <v>944</v>
       </c>
       <c r="O192" t="s">
-        <v>956</v>
+        <v>945</v>
       </c>
       <c r="P192" t="s">
-        <v>957</v>
+        <v>946</v>
       </c>
       <c r="Q192">
         <v>88</v>
@@ -13021,10 +13227,10 @@
         <v>65</v>
       </c>
       <c r="B193" t="s">
-        <v>958</v>
+        <v>947</v>
       </c>
       <c r="C193" t="s">
-        <v>959</v>
+        <v>948</v>
       </c>
       <c r="D193" t="s">
         <v>17</v>
@@ -13042,22 +13248,22 @@
         <v>-0.36134719799999998</v>
       </c>
       <c r="I193" t="s">
-        <v>960</v>
+        <v>949</v>
       </c>
       <c r="J193" t="s">
-        <v>961</v>
+        <v>950</v>
       </c>
       <c r="K193" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N193" t="s">
-        <v>962</v>
+        <v>951</v>
       </c>
       <c r="O193" t="s">
-        <v>963</v>
+        <v>952</v>
       </c>
       <c r="P193" t="s">
-        <v>964</v>
+        <v>953</v>
       </c>
       <c r="Q193">
         <v>191</v>
@@ -13068,10 +13274,10 @@
         <v>65</v>
       </c>
       <c r="B194" t="s">
-        <v>965</v>
+        <v>954</v>
       </c>
       <c r="C194" t="s">
-        <v>966</v>
+        <v>955</v>
       </c>
       <c r="D194" t="s">
         <v>17</v>
@@ -13089,22 +13295,22 @@
         <v>-3.3602714999999998E-2</v>
       </c>
       <c r="I194" t="s">
-        <v>967</v>
+        <v>956</v>
       </c>
       <c r="J194" t="s">
-        <v>968</v>
+        <v>957</v>
       </c>
       <c r="K194" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N194" t="s">
-        <v>969</v>
+        <v>958</v>
       </c>
       <c r="O194" t="s">
-        <v>970</v>
+        <v>959</v>
       </c>
       <c r="P194" t="s">
-        <v>971</v>
+        <v>960</v>
       </c>
       <c r="Q194">
         <v>65</v>
@@ -13115,10 +13321,10 @@
         <v>65</v>
       </c>
       <c r="B195" t="s">
-        <v>945</v>
+        <v>934</v>
       </c>
       <c r="C195" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D195" t="s">
         <v>17</v>
@@ -13136,22 +13342,22 @@
         <v>0.11680483799999999</v>
       </c>
       <c r="I195" t="s">
-        <v>972</v>
+        <v>961</v>
       </c>
       <c r="J195" t="s">
-        <v>973</v>
+        <v>962</v>
       </c>
       <c r="K195" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N195" t="s">
-        <v>974</v>
+        <v>963</v>
       </c>
       <c r="O195" t="s">
-        <v>943</v>
+        <v>932</v>
       </c>
       <c r="P195" t="s">
-        <v>975</v>
+        <v>964</v>
       </c>
       <c r="Q195">
         <v>57</v>
@@ -13162,10 +13368,10 @@
         <v>65</v>
       </c>
       <c r="B196" t="s">
-        <v>976</v>
+        <v>965</v>
       </c>
       <c r="C196" t="s">
-        <v>977</v>
+        <v>966</v>
       </c>
       <c r="D196" t="s">
         <v>17</v>
@@ -13183,33 +13389,543 @@
         <v>1.68389082</v>
       </c>
       <c r="I196" t="s">
-        <v>978</v>
+        <v>967</v>
       </c>
       <c r="J196" t="s">
-        <v>979</v>
+        <v>968</v>
       </c>
       <c r="K196" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N196" t="s">
-        <v>980</v>
+        <v>969</v>
       </c>
       <c r="O196" t="s">
-        <v>981</v>
+        <v>970</v>
       </c>
       <c r="P196" t="s">
-        <v>982</v>
+        <v>971</v>
       </c>
       <c r="Q196">
         <v>256</v>
       </c>
       <c r="S196" t="s">
-        <v>983</v>
+        <v>972</v>
+      </c>
+    </row>
+    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>65</v>
+      </c>
+      <c r="B197" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C197" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D197" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E197">
+        <v>250327.62789999999</v>
+      </c>
+      <c r="F197">
+        <v>59163.432220000002</v>
+      </c>
+      <c r="G197">
+        <v>50.413221559999997</v>
+      </c>
+      <c r="H197">
+        <v>-4.1079318520000001</v>
+      </c>
+      <c r="I197" t="s">
+        <v>1080</v>
+      </c>
+      <c r="J197" t="s">
+        <v>1081</v>
+      </c>
+      <c r="K197" s="2" t="str">
+        <f t="shared" ref="K197" si="5">HYPERLINK(J197, "URL Link")</f>
+        <v>URL Link</v>
+      </c>
+      <c r="M197" t="s">
+        <v>123</v>
+      </c>
+      <c r="N197" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O197" t="s">
+        <v>71</v>
+      </c>
+      <c r="R197" t="s">
+        <v>1082</v>
+      </c>
+      <c r="S197" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="198" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>65</v>
+      </c>
+      <c r="B198" t="s">
+        <v>223</v>
+      </c>
+      <c r="C198" t="s">
+        <v>224</v>
+      </c>
+      <c r="D198" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E198">
+        <v>331996.94620000001</v>
+      </c>
+      <c r="F198">
+        <v>437822.77710000001</v>
+      </c>
+      <c r="G198">
+        <v>53.832194289999997</v>
+      </c>
+      <c r="H198">
+        <v>-3.034747839</v>
+      </c>
+      <c r="I198" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J198" t="s">
+        <v>1020</v>
+      </c>
+      <c r="K198" s="2" t="str">
+        <f t="shared" ref="K198:K206" si="6">HYPERLINK(J198, "URL Link")</f>
+        <v>URL Link</v>
+      </c>
+      <c r="N198" t="s">
+        <v>228</v>
+      </c>
+      <c r="O198" t="s">
+        <v>213</v>
+      </c>
+      <c r="P198" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q198">
+        <v>155</v>
+      </c>
+      <c r="S198" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>65</v>
+      </c>
+      <c r="B199" t="s">
+        <v>451</v>
+      </c>
+      <c r="C199" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D199" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E199">
+        <v>384883.8101</v>
+      </c>
+      <c r="F199">
+        <v>433400.69069999998</v>
+      </c>
+      <c r="G199">
+        <v>53.796690380000001</v>
+      </c>
+      <c r="H199">
+        <v>-2.2309648989999999</v>
+      </c>
+      <c r="I199" t="s">
+        <v>1023</v>
+      </c>
+      <c r="J199" t="s">
+        <v>1024</v>
+      </c>
+      <c r="K199" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>URL Link</v>
+      </c>
+      <c r="M199" s="10" t="s">
+        <v>1101</v>
+      </c>
+      <c r="N199" t="s">
+        <v>1053</v>
+      </c>
+      <c r="O199" t="s">
+        <v>213</v>
+      </c>
+      <c r="P199" s="8" t="s">
+        <v>1100</v>
+      </c>
+      <c r="Q199">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="200" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>133</v>
+      </c>
+      <c r="B200" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D200" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E200">
+        <v>225132.19589999999</v>
+      </c>
+      <c r="F200">
+        <v>383415.24359999999</v>
+      </c>
+      <c r="G200">
+        <v>53.318703999999997</v>
+      </c>
+      <c r="H200">
+        <v>-4.6266925329999999</v>
+      </c>
+      <c r="I200" t="s">
+        <v>1027</v>
+      </c>
+      <c r="J200" t="s">
+        <v>1028</v>
+      </c>
+      <c r="K200" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>URL Link</v>
+      </c>
+      <c r="N200" t="s">
+        <v>1054</v>
+      </c>
+      <c r="O200" t="s">
+        <v>1055</v>
+      </c>
+      <c r="P200" t="s">
+        <v>1056</v>
+      </c>
+      <c r="Q200">
+        <v>203</v>
+      </c>
+      <c r="S200" s="6" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>15</v>
+      </c>
+      <c r="B201" t="s">
+        <v>127</v>
+      </c>
+      <c r="C201" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D201" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E201">
+        <v>283505.2892</v>
+      </c>
+      <c r="F201">
+        <v>723560.00560000003</v>
+      </c>
+      <c r="G201">
+        <v>56.389904219999998</v>
+      </c>
+      <c r="H201">
+        <v>-3.8885807990000001</v>
+      </c>
+      <c r="I201" t="s">
+        <v>1030</v>
+      </c>
+      <c r="J201" t="s">
+        <v>1031</v>
+      </c>
+      <c r="K201" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>URL Link</v>
+      </c>
+      <c r="M201" s="10" t="s">
+        <v>1101</v>
+      </c>
+      <c r="N201" t="s">
+        <v>1102</v>
+      </c>
+      <c r="O201" t="s">
+        <v>54</v>
+      </c>
+      <c r="P201" s="8" t="s">
+        <v>1103</v>
+      </c>
+      <c r="Q201">
+        <v>19</v>
+      </c>
+      <c r="S201" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>65</v>
+      </c>
+      <c r="B202" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C202" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D202" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E202">
+        <v>329788.62760000001</v>
+      </c>
+      <c r="F202">
+        <v>90765.376420000001</v>
+      </c>
+      <c r="G202">
+        <v>50.712262359999997</v>
+      </c>
+      <c r="H202">
+        <v>-2.9958021640000001</v>
+      </c>
+      <c r="I202" t="s">
+        <v>1035</v>
+      </c>
+      <c r="J202" t="s">
+        <v>1036</v>
+      </c>
+      <c r="K202" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>URL Link</v>
+      </c>
+      <c r="M202" s="10" t="s">
+        <v>1101</v>
+      </c>
+      <c r="N202" t="s">
+        <v>1058</v>
+      </c>
+      <c r="O202" t="s">
+        <v>71</v>
+      </c>
+      <c r="P202" s="8" t="s">
+        <v>1104</v>
+      </c>
+      <c r="Q202">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="203" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>65</v>
+      </c>
+      <c r="B203" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C203" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D203" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E203">
+        <v>321617.38929999998</v>
+      </c>
+      <c r="F203">
+        <v>123179.42750000001</v>
+      </c>
+      <c r="G203">
+        <v>51.002643030000002</v>
+      </c>
+      <c r="H203">
+        <v>-3.1184649470000001</v>
+      </c>
+      <c r="I203" t="s">
+        <v>1039</v>
+      </c>
+      <c r="J203" t="s">
+        <v>1040</v>
+      </c>
+      <c r="K203" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>URL Link</v>
+      </c>
+      <c r="M203" t="s">
+        <v>976</v>
+      </c>
+      <c r="N203" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O203" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="P203" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q203" t="s">
+        <v>62</v>
+      </c>
+      <c r="R203" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="204" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>65</v>
+      </c>
+      <c r="B204" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C204" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D204" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E204">
+        <v>636624.92460000003</v>
+      </c>
+      <c r="F204">
+        <v>244678.39739999999</v>
+      </c>
+      <c r="G204">
+        <v>52.049943740000003</v>
+      </c>
+      <c r="H204">
+        <v>1.449637413</v>
+      </c>
+      <c r="I204" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J204" t="s">
+        <v>1044</v>
+      </c>
+      <c r="K204" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>URL Link</v>
+      </c>
+      <c r="M204" s="10" t="s">
+        <v>1109</v>
+      </c>
+      <c r="N204" s="9" t="s">
+        <v>1105</v>
+      </c>
+      <c r="O204" s="9" t="s">
+        <v>970</v>
+      </c>
+      <c r="P204" s="8" t="s">
+        <v>1106</v>
+      </c>
+      <c r="Q204">
+        <v>108</v>
+      </c>
+      <c r="R204" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="205" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>65</v>
+      </c>
+      <c r="B205" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D205" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E205">
+        <v>294148.44689999998</v>
+      </c>
+      <c r="F205">
+        <v>72572.954249999995</v>
+      </c>
+      <c r="G205">
+        <v>50.543312989999997</v>
+      </c>
+      <c r="H205">
+        <v>-3.495240211</v>
+      </c>
+      <c r="I205" t="s">
+        <v>1046</v>
+      </c>
+      <c r="J205" t="s">
+        <v>1047</v>
+      </c>
+      <c r="K205" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>URL Link</v>
+      </c>
+      <c r="M205" s="10" t="s">
+        <v>1101</v>
+      </c>
+      <c r="N205" s="9" t="s">
+        <v>1108</v>
+      </c>
+      <c r="O205" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="P205" t="s">
+        <v>1107</v>
+      </c>
+      <c r="Q205">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="206" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>65</v>
+      </c>
+      <c r="B206" t="s">
+        <v>202</v>
+      </c>
+      <c r="C206" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D206" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E206">
+        <v>338688.30119999999</v>
+      </c>
+      <c r="F206">
+        <v>479442.68579999998</v>
+      </c>
+      <c r="G206">
+        <v>54.207042059999999</v>
+      </c>
+      <c r="H206">
+        <v>-2.9415035249999999</v>
+      </c>
+      <c r="I206" t="s">
+        <v>1050</v>
+      </c>
+      <c r="J206" t="s">
+        <v>1051</v>
+      </c>
+      <c r="K206" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>URL Link</v>
+      </c>
+      <c r="N206" t="s">
+        <v>1061</v>
+      </c>
+      <c r="O206" t="s">
+        <v>213</v>
+      </c>
+      <c r="P206" t="s">
+        <v>1062</v>
+      </c>
+      <c r="Q206">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S196" xr:uid="{92DC2760-1895-418E-83A5-74FEDCAD8698}"/>
-  <conditionalFormatting sqref="Q186:Q188 Q161 Q168:Q184 Q163:Q164 Q166 Q158 Q130 Q133 Q135:Q155 Q121:Q128 Q108:Q109 Q112:Q116 Q91 Q93:Q105 Q84:Q89 Q71:Q79 Q68 Q48:Q66 Q43:Q44 Q41 Q35:Q39 Q30:Q33 Q22 Q10 Q24:Q28 Q2:Q7 Q12:Q20 Q190:Q196">
+  <autoFilter ref="A1:S206" xr:uid="{9926F464-ECF1-4E35-8FC6-70E6BCC0B247}"/>
+  <conditionalFormatting sqref="Q186:Q188 Q168:Q184 Q163:Q164 Q166 Q158 Q130 Q133 Q135:Q155 Q121:Q128 Q108:Q109 Q112:Q116 Q91 Q93:Q105 Q84:Q89 Q71:Q79 Q68 Q48:Q66 Q43:Q44 Q41 Q35:Q39 Q30:Q33 Q22 Q10 Q24:Q28 Q2:Q7 Q12:Q20 Q190:Q202 Q205:Q206 Q160:Q161">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
       <formula>199</formula>
     </cfRule>
@@ -13229,7 +13945,10 @@
       <formula>199</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="J160" r:id="rId1" location="zoom=16&amp;lat=53.87460749&amp;lon=-1.797659397&amp;layers=6&amp;b=1&amp;marker=53.87460749,-1.797659397" xr:uid="{4C5FC7E7-D1CD-4929-8925-8F7EB222035E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>